--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,128 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38381000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38338000</v>
+      </c>
+      <c r="F8" s="3">
         <v>38607000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>38842000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>37956000</v>
       </c>
-      <c r="G8" s="3">
-        <v>14236000</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>14255000</v>
+      </c>
+      <c r="J8" s="3">
         <v>11458000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11477000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11380000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10543000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10495000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10427000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10481000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9948000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,8 +829,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +879,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +903,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +949,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,96 +999,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>-19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>735000</v>
+      </c>
+      <c r="F15" s="3">
         <v>734000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>737000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>743000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>136000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>48000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>24000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>27000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>27000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>28000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>28000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>32000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>36000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36593000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36686000</v>
+      </c>
+      <c r="F17" s="3">
         <v>36433000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>36656000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>35716000</v>
       </c>
-      <c r="G17" s="3">
-        <v>13510000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>13529000</v>
+      </c>
+      <c r="J17" s="3">
         <v>10425000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10319000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10105000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9785000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9671000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9293000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9591000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9343000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1788000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2174000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2186000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2240000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>726000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1033000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1158000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1275000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>758000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>824000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1134000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>890000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>605000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1240,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,184 +1286,214 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2579000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3087000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3100000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3137000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>983000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1195000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1294000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1415000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>899000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>963000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1274000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1036000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>755000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="F22" s="3">
         <v>411000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>428000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>452000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>498000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>57000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1763000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1758000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1788000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>228000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1033000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1102000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1218000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>758000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>824000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1134000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>890000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>605000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>277000</v>
+      </c>
+      <c r="F24" s="3">
         <v>409000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>348000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>416000</v>
       </c>
-      <c r="G24" s="3">
-        <v>78000</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J24" s="3">
         <v>264000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>294000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>301000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>259000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>262000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>324000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>297000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>231000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>984000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1354000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1410000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1372000</v>
       </c>
-      <c r="G26" s="3">
-        <v>150000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>148000</v>
+      </c>
+      <c r="J26" s="3">
         <v>769000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>808000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>917000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>499000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>562000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>810000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>593000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>374000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>977000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1351000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1408000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1368000</v>
       </c>
-      <c r="G27" s="3">
-        <v>147000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>145000</v>
+      </c>
+      <c r="J27" s="3">
         <v>767000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>806000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>915000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>498000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>560000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>813000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>598000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>382000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,27 +1706,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-232000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1616,8 +1736,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1836,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1748,52 +1886,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>977000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1351000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1408000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1368000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>144000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>772000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>806000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>915000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>266000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>560000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>813000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>598000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>382000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>977000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1351000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1408000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1368000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>144000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>772000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>806000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>915000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>266000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>560000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>813000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>598000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>382000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4452000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4619000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4577000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3610000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4976000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3855000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24032000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3634000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2771000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2972000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3656000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3611000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4155000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3185000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2231,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,35 +2254,41 @@
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
         <v>3609000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3412000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3455000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3380000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3308000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3419000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3154000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3077000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,8 +2331,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2185,8 +2381,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,140 +2431,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33316000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>33195000</v>
+      </c>
+      <c r="F47" s="3">
         <v>41994000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>41545000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>39860000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>39447000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>28976000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>29339000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>29864000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>28619000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>28245000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>27932000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>27259000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>26815000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4831000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5013000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5125000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5125000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4562000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1559000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1554000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1552000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1563000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1526000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1509000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1519000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1536000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80746000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>81164000</v>
+      </c>
+      <c r="F49" s="3">
         <v>81546000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>82166000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>82875000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>84071000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6129000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6147000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6170000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6001000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6000000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5982000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5980000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>9419000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9512000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>132000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>140000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>96000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>39000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>172000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>199000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>263000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>304000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154711000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>155774000</v>
+      </c>
+      <c r="F54" s="3">
         <v>154847000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>154401000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>154348000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>153226000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>82956000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>63102000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>63141000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>61759000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>61936000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>61738000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>61147000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>59360000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,140 +2875,160 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5585000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5090000</v>
+      </c>
+      <c r="F57" s="3">
         <v>4502000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4517000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4488000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4366000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7541000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7406000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7825000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7290000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6802000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6601000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6667000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6414000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5514000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4712000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2310000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2915000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2955000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>109000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>110000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>240000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>141000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>141000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>142000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>276000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47335000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>47704000</v>
+      </c>
+      <c r="F59" s="3">
         <v>54151000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>54015000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>54212000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>52387000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>19869000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20657000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20622000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17343000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17872000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>17999000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17816000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17032000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,73 +3071,85 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>32147000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>31893000</v>
+      </c>
+      <c r="F61" s="3">
         <v>34041000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>36885000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>37571000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>39523000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>25041000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5195000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5191000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5199000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5207000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4622000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4621000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4756000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16109000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16199000</v>
+      </c>
+      <c r="F62" s="3">
         <v>9284000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>9407000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>9403000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9453000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2872,17 +3162,23 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109632000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>110436000</v>
+      </c>
+      <c r="F66" s="3">
         <v>110151000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>110586000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>111940000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>112198000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>67401000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>48359000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>48946000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>48048000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>47791000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>47192000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>46921000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>45637000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21298000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20162000</v>
+      </c>
+      <c r="F72" s="3">
         <v>19185000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>17834000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>16426000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>18474000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17722000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16933000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15800000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15590000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>15102000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14356000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13855000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45079000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45338000</v>
+      </c>
+      <c r="F76" s="3">
         <v>44696000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>43815000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>42408000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>41028000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15555000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14743000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14195000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13711000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14145000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14546000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14226000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13723000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>977000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1351000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1408000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1368000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>144000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>772000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>806000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>915000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>266000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>560000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>813000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>598000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>382000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>927000</v>
+      </c>
+      <c r="F83" s="3">
         <v>913000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>914000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>897000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>257000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>162000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>136000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>140000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>141000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>139000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>140000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>146000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>150000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1887000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2793000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2461000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1039000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3192000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>126000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>624000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>995000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2025000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>575000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1235000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>697000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1579000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>952000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-267000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-243000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-303000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-194000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-182000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-126000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-117000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-103000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-131000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-146000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-103000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-91000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-99000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-304000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-634000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>475000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>125000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-99000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-603000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-368000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-615000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-117000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-985000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4610,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4656,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1818000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1707000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4400000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>19657000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-530000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-683000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-825000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-628000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-515000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>27000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>23000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-36000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>834000</v>
+      </c>
+      <c r="F102" s="3">
         <v>967000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1121000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>20398000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>863000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-201000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-684000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>45000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-544000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>970000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-39000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,134 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38381000</v>
+        <v>39303000</v>
       </c>
       <c r="E8" s="3">
+        <v>38315000</v>
+      </c>
+      <c r="F8" s="3">
         <v>38338000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38607000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38842000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37956000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14255000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11458000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11477000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11380000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10543000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10495000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10427000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10481000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9948000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,8 +841,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,108 +1021,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>185000</v>
+        <v>113000</v>
       </c>
       <c r="E14" s="3">
+        <v>236000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E15" s="3">
         <v>498000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>735000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>734000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>737000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>743000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>136000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>48000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>27000</v>
       </c>
       <c r="M15" s="3">
         <v>27000</v>
       </c>
       <c r="N15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O15" s="3">
         <v>28000</v>
       </c>
       <c r="P15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>32000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1147,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36593000</v>
+        <v>36640000</v>
       </c>
       <c r="E17" s="3">
+        <v>36527000</v>
+      </c>
+      <c r="F17" s="3">
         <v>36686000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36433000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36656000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35716000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13529000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10425000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10319000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10105000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9785000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9671000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9293000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9591000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9343000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2663000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1788000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1652000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2174000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2186000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2240000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>726000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1033000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1158000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1275000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>758000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>824000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1134000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>890000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>605000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,8 +1274,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,99 +1325,105 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3357000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2481000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2579000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3087000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3137000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>983000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1195000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1294000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1415000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>899000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>963000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1274000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>755000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>391000</v>
+        <v>374000</v>
       </c>
       <c r="E22" s="3">
         <v>391000</v>
       </c>
       <c r="F22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="G22" s="3">
         <v>411000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>428000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>452000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>498000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1392,108 +1431,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2289000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1397000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1261000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1763000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1758000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1788000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>228000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1033000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1102000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1218000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>758000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>824000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1134000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>890000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>605000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E24" s="3">
         <v>208000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>277000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>409000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>348000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>416000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>80000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>264000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>294000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>301000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>259000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>262000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>324000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>297000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>231000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1189000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>984000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1354000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1410000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1372000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>148000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>769000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>808000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>917000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>499000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>562000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>810000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>593000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>374000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1181000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>977000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1351000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1408000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1368000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>145000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>767000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>806000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>915000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>498000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>560000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>813000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>598000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>382000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,24 +1772,24 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>5000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-232000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1742,8 +1802,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,8 +1908,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1892,58 +1961,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1181000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>977000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1351000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1408000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1368000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>144000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>772000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>806000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>915000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>266000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>560000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>813000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>598000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>382000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1181000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>977000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1351000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1408000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1368000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>144000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>772000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>806000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>915000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>266000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>560000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>813000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>598000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>382000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,58 +2222,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7185000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4452000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4619000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4577000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3610000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4976000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3855000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24032000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3634000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2771000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2972000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3656000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3611000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4155000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3185000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,8 +2326,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2260,35 +2352,38 @@
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>3609000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3412000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3455000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3380000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3308000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3419000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3154000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3077000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,8 +2432,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2485,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2437,158 +2538,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35222000</v>
+      </c>
+      <c r="E47" s="3">
         <v>33316000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33195000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41994000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41545000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39860000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39447000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28976000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29339000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29864000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28619000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28245000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27932000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27259000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26815000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4799000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4831000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4953000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5125000</v>
       </c>
       <c r="H48" s="3">
         <v>5125000</v>
       </c>
       <c r="I48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="J48" s="3">
         <v>4562000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1559000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1554000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1552000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1563000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1526000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1509000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1519000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1536000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80381000</v>
+      </c>
+      <c r="E49" s="3">
         <v>80746000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>81164000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81546000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>82166000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>82875000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84071000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6129000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6147000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6170000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6164000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6001000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6000000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5982000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5980000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2803,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9788000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9419000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9512000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>132000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>96000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>172000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>199000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>263000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>304000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2909,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>159628000</v>
+      </c>
+      <c r="E54" s="3">
         <v>154711000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155774000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154847000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154401000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154348000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>153226000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82956000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63102000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63141000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61759000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61936000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61738000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61147000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59360000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,158 +3006,168 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5413000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5585000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5090000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4502000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4517000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4488000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4366000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7541000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7406000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7825000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7290000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6802000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6601000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6667000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6414000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4750000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4340000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5514000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4712000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2310000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2915000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2955000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>109000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>110000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>240000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>141000</v>
       </c>
       <c r="O58" s="3">
         <v>141000</v>
       </c>
       <c r="P58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>142000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>276000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49714000</v>
+      </c>
+      <c r="E59" s="3">
         <v>47335000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47704000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54151000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54015000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54212000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52387000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19869000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20657000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20622000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17343000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17872000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17999000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17816000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17032000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3077,82 +3216,88 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31774000</v>
+      </c>
+      <c r="E61" s="3">
         <v>32147000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31893000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>34041000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36885000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37571000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39523000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25041000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5195000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5191000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5199000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5207000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4622000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4621000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4756000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16279000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16109000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16199000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9284000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9407000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9403000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9453000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3168,8 +3313,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3177,8 +3322,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3481,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112262000</v>
+      </c>
+      <c r="E66" s="3">
         <v>109632000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110436000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110151000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110586000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111940000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112198000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67401000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48359000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48946000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48048000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47791000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47192000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46921000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45637000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3767,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23052000</v>
+      </c>
+      <c r="E72" s="3">
         <v>21298000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20162000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19185000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17834000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16426000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15088000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18474000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17722000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16933000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15800000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15590000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15102000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14356000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13855000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3979,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47366000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45079000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45338000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44696000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43815000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42408000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41028000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15555000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14743000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14195000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13711000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14145000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14546000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14226000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13723000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1181000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>977000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1351000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1408000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1368000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>144000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>772000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>806000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>915000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>266000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>560000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>813000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>598000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>382000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E83" s="3">
         <v>693000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>927000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>913000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>914000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>897000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>257000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>162000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>136000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>140000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>141000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>140000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>146000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>150000</v>
       </c>
       <c r="R83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1887000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2793000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2461000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1039000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3192000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>126000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>624000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>995000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2025000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>575000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1235000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>697000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1579000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>952000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4611,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-267000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-310000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-243000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-303000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-194000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-182000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-126000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-117000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-103000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-131000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-146000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-103000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-99000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-269000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-271000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-304000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-634000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>475000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>125000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-603000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-368000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-615000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-985000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,154 +5054,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19657000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-530000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-683000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-825000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-628000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-515000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-37000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-36000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2329000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-237000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>834000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>967000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1121000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20398000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>863000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-201000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-684000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>45000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-544000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>970000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,140 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40898000</v>
+      </c>
+      <c r="E8" s="3">
         <v>39303000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38315000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38338000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38607000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38842000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37956000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14255000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11458000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11477000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11380000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10543000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10495000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10427000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10481000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9948000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,8 +850,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +906,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +930,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +984,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,114 +1040,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E14" s="3">
         <v>113000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>236000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E15" s="3">
         <v>496000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>498000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>735000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>734000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>737000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>743000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>136000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>27000</v>
       </c>
       <c r="N15" s="3">
         <v>27000</v>
       </c>
       <c r="O15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P15" s="3">
         <v>28000</v>
       </c>
       <c r="Q15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R15" s="3">
         <v>32000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>36000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1173,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38758000</v>
+      </c>
+      <c r="E17" s="3">
         <v>36640000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36527000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36686000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36433000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36656000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35716000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13529000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10425000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10319000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10105000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9785000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9671000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9293000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9591000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9343000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2663000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1788000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1652000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2174000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2186000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2240000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>726000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1033000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1158000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1275000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>758000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>824000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1134000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>890000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>605000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1307,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,105 +1361,111 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2842000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3357000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2481000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2579000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3087000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3100000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3137000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>983000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1195000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1294000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1415000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>899000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>963000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1274000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1036000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>755000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E22" s="3">
         <v>374000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>391000</v>
       </c>
       <c r="F22" s="3">
         <v>391000</v>
       </c>
       <c r="G22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="H22" s="3">
         <v>411000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>428000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>452000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>498000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>56000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1434,114 +1473,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1804000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2289000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1397000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1261000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1763000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1758000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1788000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>228000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1033000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1102000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1218000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>758000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>824000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1134000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>890000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>605000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E24" s="3">
         <v>529000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>208000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>277000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>409000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>348000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>416000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>80000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>264000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>294000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>301000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>259000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>262000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>324000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>297000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>231000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1641,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1760000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1189000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>984000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1354000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1410000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1372000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>148000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>769000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>808000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>917000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>499000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>562000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>810000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>593000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>374000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1754000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1181000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>977000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1351000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1408000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1368000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>145000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>767000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>806000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>915000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>498000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>560000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>813000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>598000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>382000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1809,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1775,24 +1835,24 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-232000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1805,8 +1865,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1921,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +1977,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1964,61 +2033,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1754000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1181000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>977000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1351000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1408000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1368000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>144000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>772000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>806000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>915000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>266000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>560000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>813000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>598000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>382000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2145,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1754000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1181000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>977000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1351000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1408000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1368000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>144000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>772000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>806000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>915000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>266000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>560000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>813000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>598000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>382000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2286,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,61 +2308,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5344000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7185000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4452000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4619000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4577000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3610000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4976000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3855000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24032000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3634000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2771000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2972000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3656000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3611000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4155000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3185000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,61 +2418,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>3609000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3412000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3455000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3380000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3308000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3419000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3154000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3077000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,8 +2530,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2488,8 +2586,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2541,167 +2642,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36764000</v>
+      </c>
+      <c r="E47" s="3">
         <v>35222000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33316000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33195000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41994000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41545000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39860000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39447000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28976000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29339000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29864000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28619000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28245000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27932000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27259000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26815000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4733000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4799000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4831000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4953000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5125000</v>
       </c>
       <c r="I48" s="3">
         <v>5125000</v>
       </c>
       <c r="J48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4562000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1559000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1554000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1552000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1563000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1526000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1509000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1519000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1536000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80177000</v>
+      </c>
+      <c r="E49" s="3">
         <v>80381000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80746000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81164000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81546000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>82166000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82875000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>84071000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6129000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6147000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6170000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6164000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6001000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6000000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5982000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5980000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2866,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,61 +2922,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10022000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9788000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9419000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9512000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>132000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>140000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>96000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>172000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>199000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>263000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>304000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3034,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>160044000</v>
+      </c>
+      <c r="E54" s="3">
         <v>159628000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154711000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155774000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154847000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154401000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154348000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>153226000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82956000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63102000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63141000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61759000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61936000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61738000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61147000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59360000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3114,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,167 +3136,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5327000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5413000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5585000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5090000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4502000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4517000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4488000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4366000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7541000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7406000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7825000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7290000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6802000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6601000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6667000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6414000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6449000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4750000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4340000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5514000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4712000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2310000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2915000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2955000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>109000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>110000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>240000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>141000</v>
       </c>
       <c r="P58" s="3">
         <v>141000</v>
       </c>
       <c r="Q58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="R58" s="3">
         <v>142000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>276000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50205000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49714000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47335000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47704000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54151000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54015000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54212000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52387000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19869000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20657000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20622000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17343000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17872000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17999000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17816000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17032000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3219,88 +3358,94 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29537000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31774000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>32147000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31893000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34041000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>36885000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37571000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39523000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25041000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5195000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5191000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5199000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5207000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4622000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4621000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4756000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16337000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16279000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16109000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16199000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9284000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9407000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9403000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9453000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3316,8 +3461,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3325,8 +3470,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3526,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3582,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3638,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112012000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112262000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>109632000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110436000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110151000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110586000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111940000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112198000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67401000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48359000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48946000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48048000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47791000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47192000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46921000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45637000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3718,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3772,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3828,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3884,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +3940,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24440000</v>
+      </c>
+      <c r="E72" s="3">
         <v>23052000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21298000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20162000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19185000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17834000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16426000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15088000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18474000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17722000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16933000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15800000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15590000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15102000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14356000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13855000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4052,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4108,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4164,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48032000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47366000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45079000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45338000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44696000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43815000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42408000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41028000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15555000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14743000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14195000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13711000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14145000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14546000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14226000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13723000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4276,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1388000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1754000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1181000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>977000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1351000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1408000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1368000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>144000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>772000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>806000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>915000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>266000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>560000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>813000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>598000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>382000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4417,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E83" s="3">
         <v>694000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>693000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>927000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>913000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>914000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>897000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>257000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>162000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>136000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>140000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>141000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>140000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>146000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>150000</v>
       </c>
       <c r="S83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4527,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4583,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4639,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4695,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4751,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2856000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1887000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2793000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2461000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1039000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3192000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>126000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>624000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>995000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2025000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>575000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1235000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>697000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1579000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>952000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,61 +4831,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-256000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-267000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-310000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-243000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-303000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-194000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-182000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-126000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-103000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-131000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-146000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-91000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-99000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4941,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4997,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-938000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-237000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-269000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-271000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-304000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-634000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>475000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>125000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-603000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-368000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-615000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-117000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-985000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,8 +5077,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4898,8 +5131,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5187,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5243,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,163 +5299,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1682000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-312000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4400000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19657000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-530000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-683000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-825000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-515000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>19000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-36000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2097000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2329000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-237000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>834000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>967000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1121000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20398000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>863000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-201000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-684000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>45000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-544000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>970000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,146 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41830000</v>
+      </c>
+      <c r="E8" s="3">
         <v>40898000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39303000</v>
       </c>
-      <c r="F8" s="3">
-        <v>38315000</v>
-      </c>
       <c r="G8" s="3">
+        <v>38294000</v>
+      </c>
+      <c r="H8" s="3">
         <v>38338000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38607000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38842000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37956000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14255000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11458000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11477000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11380000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10543000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10495000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10427000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10481000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9948000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -853,8 +859,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +918,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,8 +943,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,8 +1000,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,120 +1059,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-82000</v>
+        <v>-4064000</v>
       </c>
       <c r="E14" s="3">
-        <v>113000</v>
+        <v>-78000</v>
       </c>
       <c r="F14" s="3">
-        <v>236000</v>
+        <v>144000</v>
       </c>
       <c r="G14" s="3">
+        <v>251000</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E15" s="3">
         <v>493000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>496000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>498000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>735000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>734000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>737000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>743000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>136000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>27000</v>
       </c>
       <c r="O15" s="3">
         <v>27000</v>
       </c>
       <c r="P15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q15" s="3">
         <v>28000</v>
       </c>
       <c r="R15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S15" s="3">
         <v>32000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>36000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1174,120 +1199,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36115000</v>
+      </c>
+      <c r="E17" s="3">
         <v>38758000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36640000</v>
       </c>
-      <c r="F17" s="3">
-        <v>36527000</v>
-      </c>
       <c r="G17" s="3">
+        <v>36506000</v>
+      </c>
+      <c r="H17" s="3">
         <v>36686000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36433000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36656000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35716000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13529000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10425000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10319000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10105000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9785000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9671000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9293000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9591000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9343000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5715000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2140000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2663000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1788000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1652000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2174000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2186000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2240000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>726000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1033000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1158000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1275000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>758000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>824000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1134000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>890000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>605000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,8 +1340,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1364,111 +1397,117 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6428000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2842000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3357000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2481000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2579000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3087000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3100000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3137000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>983000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1195000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1294000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1415000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>899000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>963000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1274000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1036000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>755000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E22" s="3">
         <v>336000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>374000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>391000</v>
       </c>
       <c r="G22" s="3">
         <v>391000</v>
       </c>
       <c r="H22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="I22" s="3">
         <v>411000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>428000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>452000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>498000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>56000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1476,120 +1515,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5378000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1804000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2289000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1397000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1261000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1763000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1758000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1788000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>228000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1033000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1102000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1218000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>758000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>824000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1134000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>890000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>605000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="E24" s="3">
         <v>406000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>529000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>208000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>277000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>409000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>348000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>416000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>80000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>264000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>294000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>301000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>259000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>262000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>324000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>297000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>231000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,120 +1692,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4142000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1398000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1760000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1189000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>984000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1354000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1410000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1372000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>769000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>808000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>917000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>499000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>562000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>810000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>593000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>374000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4135000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1388000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1754000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1181000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>977000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1351000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1408000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1368000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>767000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>806000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>915000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>498000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>560000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>813000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>598000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>382000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,8 +1869,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1838,24 +1898,24 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-232000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1868,8 +1928,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +1987,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,8 +2046,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2036,64 +2105,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4135000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1388000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1754000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1181000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>977000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1351000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1408000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1368000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>144000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>772000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>806000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>915000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>266000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>560000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>813000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>598000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>382000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,125 +2223,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4135000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1388000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1754000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1181000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>977000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1351000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1408000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1368000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>144000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>772000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>806000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>915000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>266000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>560000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>813000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>598000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>382000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2371,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2309,64 +2394,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10182000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5344000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7185000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4452000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4619000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4577000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3610000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4976000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3855000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24032000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3634000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2771000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2972000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3656000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3611000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4155000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3185000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,8 +2510,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,38 +2539,41 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>3609000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3412000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3455000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3380000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3308000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3419000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3154000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3077000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2533,8 +2628,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2589,8 +2687,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2645,176 +2746,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36784000</v>
+      </c>
+      <c r="E47" s="3">
         <v>36764000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>35222000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33316000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33195000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41994000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41545000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39860000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39447000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28976000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29339000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29864000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28619000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28245000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27932000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27259000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26815000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4757000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4733000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4799000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4831000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4953000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5125000</v>
       </c>
       <c r="J48" s="3">
         <v>5125000</v>
       </c>
       <c r="K48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="L48" s="3">
         <v>4562000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1559000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1554000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1552000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1563000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1509000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1519000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1536000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79827000</v>
+      </c>
+      <c r="E49" s="3">
         <v>80177000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80381000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80746000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81164000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81546000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82166000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>82875000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84071000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6129000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6147000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6170000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6164000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6001000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6000000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5982000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5980000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +2982,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,64 +3041,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>10022000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9788000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9419000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9512000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>132000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>140000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>96000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>172000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>199000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>263000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>304000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,64 +3159,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155451000</v>
+      </c>
+      <c r="E54" s="3">
         <v>160044000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>159628000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154711000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155774000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154847000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154401000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154348000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>153226000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82956000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63102000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63141000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61759000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61936000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61738000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61147000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59360000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3115,8 +3243,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3137,176 +3266,186 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5478000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5327000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5413000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5585000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5090000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4502000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4517000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4488000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4366000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7541000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7406000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7825000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7290000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6802000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6601000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6667000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6414000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3374000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6449000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4750000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4340000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5514000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4712000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2310000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2915000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2955000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>109000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>110000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>240000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>141000</v>
       </c>
       <c r="Q58" s="3">
         <v>141000</v>
       </c>
       <c r="R58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="S58" s="3">
         <v>142000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>276000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53591000</v>
+      </c>
+      <c r="E59" s="3">
         <v>50205000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49714000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47335000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47704000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54151000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54015000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54212000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52387000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19869000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20657000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20622000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17343000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17872000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17999000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17816000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17032000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3361,94 +3500,100 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29545000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29537000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31774000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32147000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31893000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>34041000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>36885000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37571000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39523000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25041000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5195000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5191000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5199000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5207000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4622000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4621000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4756000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8939000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16337000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16279000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16109000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16199000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9284000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9407000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9403000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9453000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3464,8 +3609,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3473,8 +3618,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3529,8 +3677,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,8 +3736,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3641,64 +3795,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105130000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112012000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112262000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>109632000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>110436000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110151000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110586000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>111940000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112198000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67401000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48359000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48946000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48048000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47791000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47192000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46921000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45637000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3719,8 +3879,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +3936,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3831,8 +3995,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3887,8 +4054,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3943,64 +4113,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28575000</v>
+      </c>
+      <c r="E72" s="3">
         <v>24440000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23052000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21298000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20162000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19185000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17834000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16426000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15088000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18474000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17722000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16933000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15800000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15590000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15102000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14356000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13855000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4055,8 +4231,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4290,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4167,64 +4349,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50321000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48032000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47366000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45079000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45338000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44696000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43815000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42408000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41028000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15555000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14743000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14195000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13711000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14145000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14546000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14226000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13723000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4279,125 +4467,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4135000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1388000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1754000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1181000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>977000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1351000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1408000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1368000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>144000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>772000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>806000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>915000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>266000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>560000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>813000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>598000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>382000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4418,64 +4615,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E83" s="3">
         <v>702000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>694000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>693000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>927000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>913000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>914000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>897000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>257000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>162000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>136000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>140000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>141000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>140000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>146000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>150000</v>
       </c>
       <c r="T83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,8 +4731,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,8 +4790,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,8 +4849,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4698,8 +4908,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4754,64 +4967,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5092000</v>
+      </c>
+      <c r="E89" s="3">
         <v>515000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2856000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1887000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2793000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2461000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1039000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3192000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>624000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>995000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2025000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>575000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1235000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>697000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1579000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>952000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4832,64 +5051,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-319000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-252000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-256000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-267000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-310000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-243000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-303000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-194000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-182000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-126000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-103000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-131000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-146000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-103000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-91000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-99000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4944,8 +5167,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5000,64 +5226,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4420000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-938000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-237000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-269000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-271000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-304000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-634000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>475000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>125000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-603000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-368000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-615000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-117000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-985000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5078,8 +5310,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5134,8 +5367,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5190,8 +5426,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5246,8 +5485,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5302,172 +5544,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4721000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-312000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19657000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-530000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-683000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-825000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-628000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-515000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>30000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>19000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-36000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4839000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2329000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-237000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>834000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>967000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1121000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20398000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>863000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-201000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-684000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>45000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-544000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>970000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,152 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40972000</v>
+      </c>
+      <c r="E8" s="3">
         <v>41830000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40898000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39303000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38294000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38338000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38607000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38842000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37956000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14255000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11458000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11477000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11380000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10543000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10495000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10427000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10481000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9948000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,8 +868,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +930,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,8 +956,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,8 +1016,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,67 +1078,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4064000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-78000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>144000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>251000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,58 +1152,61 @@
         <v>495000</v>
       </c>
       <c r="E15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="F15" s="3">
         <v>493000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>496000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>498000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>735000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>734000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>737000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>743000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>136000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>27000</v>
       </c>
       <c r="P15" s="3">
         <v>27000</v>
       </c>
       <c r="Q15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="R15" s="3">
         <v>28000</v>
       </c>
       <c r="S15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T15" s="3">
         <v>32000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>36000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1200,126 +1225,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39145000</v>
+      </c>
+      <c r="E17" s="3">
         <v>36115000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38758000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36640000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36506000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36686000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36433000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36656000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35716000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13529000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10425000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10319000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10105000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9785000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9671000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9293000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9591000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9343000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5715000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2140000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2663000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1788000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1652000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2174000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2186000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2240000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>726000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1033000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1158000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1275000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>758000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>824000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1134000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>890000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>605000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,8 +1373,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1400,117 +1433,123 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2542000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6428000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2842000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3357000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2481000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2579000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3087000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3137000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>983000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1195000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1294000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1415000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>899000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>963000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1274000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1036000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>755000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E22" s="3">
         <v>337000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>336000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>374000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>391000</v>
       </c>
       <c r="H22" s="3">
         <v>391000</v>
       </c>
       <c r="I22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="J22" s="3">
         <v>411000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>428000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>452000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>498000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>56000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>57000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1518,126 +1557,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5378000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1804000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2289000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1397000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1261000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1763000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1758000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1788000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>228000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1033000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1102000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1218000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>758000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>824000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1134000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>890000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>605000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1236000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>406000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>529000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>208000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>277000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>409000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>348000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>416000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>264000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>294000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>301000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>259000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>262000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>324000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>297000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>231000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1695,126 +1743,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4142000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1398000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1760000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1189000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>984000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1354000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1410000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1372000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>769000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>808000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>917000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>499000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>562000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>810000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>593000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>374000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4135000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1388000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1754000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1181000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>977000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1351000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1408000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1368000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>767000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>806000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>915000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>498000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>560000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>813000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>598000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>382000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,8 +1929,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,24 +1961,24 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-232000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1931,8 +1991,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +2053,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2049,8 +2115,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2108,67 +2177,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4135000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1388000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1754000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1181000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>977000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1351000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1408000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1368000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>144000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>772000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>806000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>915000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>266000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>560000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>813000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>598000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>382000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2226,131 +2301,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4135000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1388000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1754000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1181000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>977000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1351000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1408000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1368000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>144000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>772000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>806000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>915000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>266000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>560000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>813000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>598000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>382000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2372,8 +2456,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2395,67 +2480,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6505000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10182000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5344000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7185000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4452000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4619000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4577000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3610000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4976000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3855000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24032000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3634000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2771000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2972000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3656000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3611000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4155000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3185000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,8 +2602,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2542,38 +2634,41 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>3609000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3412000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3455000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3380000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3308000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3419000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3154000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3077000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2631,8 +2726,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2690,8 +2788,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2749,185 +2850,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37886000</v>
+      </c>
+      <c r="E47" s="3">
         <v>36784000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36764000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>35222000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33316000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33195000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41994000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>41545000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39860000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>39447000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28976000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29339000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29864000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28619000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28245000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27932000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27259000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26815000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4648000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4757000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4733000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4799000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4831000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4953000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5125000</v>
       </c>
       <c r="K48" s="3">
         <v>5125000</v>
       </c>
       <c r="L48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="M48" s="3">
         <v>4562000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1559000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1554000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1552000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1526000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1509000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1519000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1536000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79427000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79827000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80177000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80381000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80746000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81164000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>81546000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>82166000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>82875000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84071000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6129000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6147000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6170000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6164000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6001000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6000000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5982000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5980000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2985,8 +3098,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3044,67 +3160,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>10022000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9788000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9419000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9512000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>132000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>140000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>96000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>172000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>199000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>263000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>304000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3162,67 +3284,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>152081000</v>
+      </c>
+      <c r="E54" s="3">
         <v>155451000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>160044000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>159628000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154711000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155774000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154847000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154401000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154348000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>153226000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82956000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63102000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63141000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61759000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61936000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61738000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61147000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59360000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3244,8 +3372,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3267,185 +3396,195 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5640000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5478000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5327000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5413000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5585000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5090000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4502000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4517000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4488000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4366000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7541000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7406000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7825000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7290000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6802000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6601000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6667000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6414000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3374000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6449000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4750000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4340000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5514000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4712000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2310000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2915000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2955000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>109000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>110000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>240000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>141000</v>
       </c>
       <c r="R58" s="3">
         <v>141000</v>
       </c>
       <c r="S58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="T58" s="3">
         <v>142000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>276000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53418000</v>
+      </c>
+      <c r="E59" s="3">
         <v>53591000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50205000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49714000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47335000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47704000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54151000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54015000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54212000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52387000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19869000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20657000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20622000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17343000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17872000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17999000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17816000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17032000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3503,100 +3642,106 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31568000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29545000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29537000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31774000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>32147000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31893000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>34041000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>36885000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37571000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39523000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25041000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5195000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5191000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5199000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5207000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4622000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4621000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4756000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8832000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8939000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16337000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16279000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16109000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16199000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9284000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9407000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9403000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9453000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3612,8 +3757,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3621,8 +3766,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3680,8 +3828,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3739,8 +3890,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3798,67 +3952,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103932000</v>
+      </c>
+      <c r="E66" s="3">
         <v>105130000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112012000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112262000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>109632000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>110436000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110151000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110586000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>111940000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112198000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67401000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48359000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48946000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48048000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47791000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47192000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46921000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45637000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3880,8 +4040,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3939,8 +4100,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3998,8 +4162,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4057,8 +4224,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4116,67 +4286,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29389000</v>
+      </c>
+      <c r="E72" s="3">
         <v>28575000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24440000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23052000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21298000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20162000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19185000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17834000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16426000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15088000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18474000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17722000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16933000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15800000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15590000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15102000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14356000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13855000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4234,8 +4410,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4293,8 +4472,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4352,67 +4534,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48149000</v>
+      </c>
+      <c r="E76" s="3">
         <v>50321000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48032000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47366000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45079000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45338000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44696000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43815000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42408000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41028000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15555000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14743000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14195000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13711000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14145000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14546000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14226000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13723000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4470,131 +4658,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4135000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1388000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1754000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1181000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>977000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1351000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1408000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1368000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>144000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>772000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>806000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>915000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>266000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>560000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>813000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>598000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>382000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4616,67 +4813,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>715000</v>
+      </c>
+      <c r="E83" s="3">
         <v>713000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>702000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>694000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>693000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>927000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>913000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>914000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>897000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>257000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>162000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>136000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>140000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>141000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>140000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>146000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>150000</v>
       </c>
       <c r="U83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4734,8 +4935,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4793,8 +4997,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4852,8 +5059,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4911,8 +5121,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4970,67 +5183,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5092000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>515000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2856000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1887000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2793000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2461000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1039000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3192000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>624000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>995000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2025000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>575000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1235000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>697000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1579000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>952000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5052,67 +5271,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-319000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-252000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-256000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-267000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-310000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-243000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-303000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-194000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-182000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-126000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-103000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-146000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-103000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-91000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-99000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5170,8 +5393,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5229,67 +5455,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-717000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4420000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-938000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-237000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-269000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-271000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-304000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-634000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>475000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>125000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-603000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-368000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-615000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-117000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-985000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5311,13 +5543,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-345000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5370,8 +5603,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5429,8 +5665,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5488,8 +5727,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5547,181 +5789,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4051000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-312000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19657000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-530000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-683000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-825000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-628000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-515000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>48000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-37000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>19000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-36000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3701000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4839000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2329000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-237000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>834000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>967000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1121000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20398000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>863000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-201000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-684000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>45000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-544000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>970000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43190000</v>
+      </c>
+      <c r="E8" s="3">
         <v>40972000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41830000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40898000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39303000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38294000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38338000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38607000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38842000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37956000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14255000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11458000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11477000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11380000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10543000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10495000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10427000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10481000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9948000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,8 +877,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,8 +942,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +969,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,8 +1032,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,132 +1097,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="3">
         <v>133000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4064000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-78000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>144000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>251000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-19000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>495000</v>
+        <v>503000</v>
       </c>
       <c r="E15" s="3">
         <v>495000</v>
       </c>
       <c r="F15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="G15" s="3">
         <v>493000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>496000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>498000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>735000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>734000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>737000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>743000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>136000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>48000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>27000</v>
       </c>
       <c r="Q15" s="3">
         <v>27000</v>
       </c>
       <c r="R15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="S15" s="3">
         <v>28000</v>
       </c>
       <c r="T15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U15" s="3">
         <v>32000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>36000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1226,132 +1251,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40994000</v>
+      </c>
+      <c r="E17" s="3">
         <v>39145000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36115000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38758000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36640000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36506000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36686000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36433000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36656000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35716000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13529000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10425000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10319000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10105000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9785000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9671000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9293000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9591000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9343000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2196000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1827000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5715000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2140000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2663000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1788000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1652000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2174000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2186000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2240000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>726000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1033000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1158000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1275000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>758000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>824000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1134000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>890000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>605000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1374,8 +1406,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1436,123 +1469,129 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2927000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2542000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6428000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2842000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3357000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2481000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2579000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3087000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3137000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>983000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1195000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1294000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1415000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>899000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>963000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1274000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1036000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>755000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E22" s="3">
         <v>314000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>337000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>336000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>374000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>391000</v>
       </c>
       <c r="I22" s="3">
         <v>391000</v>
       </c>
       <c r="J22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="K22" s="3">
         <v>411000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>428000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>452000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>498000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>56000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>57000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1560,132 +1599,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1513000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5378000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1804000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2289000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1397000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1261000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1763000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1758000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1788000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>228000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1033000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1102000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1218000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>758000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>824000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1134000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>890000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>605000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E24" s="3">
         <v>342000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1236000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>406000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>529000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>208000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>277000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>409000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>348000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>416000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>80000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>264000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>294000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>301000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>259000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>262000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>324000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>297000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>231000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1746,132 +1794,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1171000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4142000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1398000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1760000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1189000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>984000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1354000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1410000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1372000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>769000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>808000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>917000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>499000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>562000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>810000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>593000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>374000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1161000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4135000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1388000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1754000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1181000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>977000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1351000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1408000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1368000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>767000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>806000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>915000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>498000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>560000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>813000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>598000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>382000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1932,8 +1989,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,24 +2024,24 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-232000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1994,8 +2054,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2056,8 +2119,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2118,8 +2184,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2180,70 +2249,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1161000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4135000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1388000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1754000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1181000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>977000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1351000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1408000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1368000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>144000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>772000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>806000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>915000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>266000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>560000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>813000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>598000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>382000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2304,137 +2379,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1161000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4135000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1388000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1754000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1181000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>977000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1351000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1408000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1368000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>144000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>772000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>806000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>915000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>266000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>560000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>813000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>598000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>382000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2457,8 +2541,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2481,70 +2566,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3821000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6505000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10182000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5344000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7185000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4452000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4619000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4577000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3610000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4976000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3855000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24032000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3634000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2771000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2972000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3656000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3611000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4155000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3185000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2605,8 +2694,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2637,38 +2729,41 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>3609000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3412000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3455000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3380000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3308000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3419000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3154000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3077000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2729,8 +2824,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2791,8 +2889,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2853,194 +2954,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>40389000</v>
+      </c>
+      <c r="E47" s="3">
         <v>37886000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36784000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36764000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>35222000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>33316000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33195000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>41994000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41545000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>39860000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>39447000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28976000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29339000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29864000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28619000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28245000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27932000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27259000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>26815000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4586000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4648000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4757000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4733000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4799000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4831000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4953000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5125000</v>
       </c>
       <c r="L48" s="3">
         <v>5125000</v>
       </c>
       <c r="M48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="N48" s="3">
         <v>4562000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1559000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1554000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1552000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1563000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1526000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1509000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1519000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1536000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>81070000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79427000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79827000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80177000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80381000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80746000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>81164000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>81546000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>82166000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>82875000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84071000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6129000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6147000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6170000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6164000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6001000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6000000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5982000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5980000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3101,8 +3214,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3163,70 +3279,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>10022000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9788000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9419000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9512000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>132000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>140000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>172000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>199000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>263000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>304000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3287,70 +3409,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154207000</v>
+      </c>
+      <c r="E54" s="3">
         <v>152081000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155451000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>160044000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>159628000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154711000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155774000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154847000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154401000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154348000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>153226000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82956000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63102000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63141000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61759000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61936000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61738000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61147000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>59360000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3373,8 +3501,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3397,194 +3526,204 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5647000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5640000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5478000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5327000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5413000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5585000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5090000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4502000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4517000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4488000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4366000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7541000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7406000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7825000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7290000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6802000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6601000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6667000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6414000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E58" s="3">
         <v>404000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3374000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6449000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4750000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4340000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5514000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4712000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2310000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2915000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2955000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>109000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>110000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>240000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>141000</v>
       </c>
       <c r="S58" s="3">
         <v>141000</v>
       </c>
       <c r="T58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="U58" s="3">
         <v>142000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>276000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53907000</v>
+      </c>
+      <c r="E59" s="3">
         <v>53418000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53591000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50205000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49714000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47335000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47704000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54151000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54015000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54212000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>52387000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19869000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20657000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20622000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17343000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17872000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17999000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17816000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17032000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3645,106 +3784,112 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31606000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31568000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29545000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29537000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31774000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32147000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31893000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34041000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36885000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37571000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39523000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25041000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5195000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5191000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5199000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5207000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4622000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4621000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4756000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8867000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8832000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8939000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16337000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16279000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16109000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16199000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9284000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9407000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9403000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9453000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3760,8 +3905,8 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3769,8 +3914,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3831,8 +3979,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3893,8 +4044,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3955,70 +4109,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105498000</v>
+      </c>
+      <c r="E66" s="3">
         <v>103932000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105130000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112012000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112262000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>109632000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>110436000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110151000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110586000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>111940000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112198000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67401000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48359000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48946000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48048000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47791000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47192000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46921000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45637000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4041,8 +4201,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4103,8 +4264,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4165,8 +4329,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4227,8 +4394,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4289,70 +4459,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30513000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29389000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28575000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24440000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23052000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21298000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20162000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19185000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17834000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16426000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15088000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18474000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17722000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16933000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15800000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15590000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15102000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14356000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13855000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4413,8 +4589,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4475,8 +4654,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4537,70 +4719,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48709000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48149000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50321000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48032000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47366000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45079000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45338000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>44696000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43815000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42408000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41028000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15555000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14743000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14195000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13711000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14145000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14546000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14226000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13723000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4661,137 +4849,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1161000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4135000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1388000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1754000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1181000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>977000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1351000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1408000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1368000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>144000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>772000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>806000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>915000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>266000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>560000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>813000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>598000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>382000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4814,70 +5011,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E83" s="3">
         <v>715000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>713000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>702000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>694000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>693000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>927000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>913000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>914000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>897000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>257000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>162000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>136000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>140000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>141000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>140000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>146000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>150000</v>
       </c>
       <c r="V83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4938,8 +5139,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5000,8 +5204,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5062,8 +5269,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5124,8 +5334,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5186,70 +5399,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-296000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1093000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5092000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>515000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2856000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1887000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2793000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2461000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1039000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3192000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>624000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>995000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>575000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1235000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>697000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1579000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>952000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5272,70 +5491,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-242000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-319000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-252000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-256000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-267000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-310000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-243000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-303000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-194000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-182000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-126000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-117000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-131000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-146000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-103000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-91000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-99000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5396,8 +5619,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5458,70 +5684,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2307000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-717000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4420000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-938000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-237000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-269000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-271000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-304000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-634000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>475000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>125000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-99000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-603000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-368000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-615000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-117000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-985000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5544,17 +5776,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-345000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5606,8 +5839,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5668,8 +5904,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5730,8 +5969,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5792,190 +6034,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-312000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19657000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-530000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-683000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-825000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-628000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-515000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>48000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-37000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>19000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-36000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2666000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4839000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2329000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-237000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>834000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>967000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1121000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20398000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>863000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-684000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>45000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-544000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>970000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,164 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>44356000</v>
+      </c>
+      <c r="E8" s="3">
         <v>43190000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40972000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41830000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40898000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39303000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38294000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38338000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38607000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38842000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37956000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14255000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11458000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11477000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11380000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10543000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10495000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10427000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10481000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9948000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,8 +886,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,8 +954,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,8 +982,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1035,8 +1048,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,138 +1116,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>26000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>133000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4064000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-78000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>144000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>251000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-19000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E15" s="3">
         <v>503000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>495000</v>
       </c>
       <c r="F15" s="3">
         <v>495000</v>
       </c>
       <c r="G15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="H15" s="3">
         <v>493000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>496000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>498000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>735000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>734000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>737000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>743000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>136000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>27000</v>
       </c>
       <c r="R15" s="3">
         <v>27000</v>
       </c>
       <c r="S15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="T15" s="3">
         <v>28000</v>
       </c>
       <c r="U15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V15" s="3">
         <v>32000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>36000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1252,138 +1277,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41994000</v>
+      </c>
+      <c r="E17" s="3">
         <v>40994000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>39145000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36115000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38758000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36640000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36506000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36686000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36433000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36656000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35716000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13529000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10425000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10319000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10105000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9785000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9671000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9293000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9591000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9343000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2362000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2196000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1827000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5715000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2140000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2663000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1788000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1652000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2174000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2186000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2240000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>726000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1033000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1158000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1275000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>758000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>824000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1134000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>890000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>605000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,8 +1439,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1472,129 +1505,135 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3096000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2927000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2542000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6428000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2842000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3357000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2481000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2579000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3087000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3100000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3137000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>983000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1195000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1415000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>899000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>963000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1274000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1036000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>755000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E22" s="3">
         <v>298000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>314000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>337000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>336000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>374000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>391000</v>
       </c>
       <c r="J22" s="3">
         <v>391000</v>
       </c>
       <c r="K22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="L22" s="3">
         <v>411000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>428000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>452000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>498000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>56000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>57000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1602,138 +1641,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2059000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1898000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1513000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5378000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1804000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2289000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1397000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1261000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1763000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1758000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1788000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>228000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1033000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1218000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>758000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>824000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1134000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>890000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>605000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E24" s="3">
         <v>422000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>342000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1236000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>406000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>529000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>208000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>277000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>409000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>348000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>416000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>80000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>264000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>294000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>301000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>259000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>262000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>324000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>297000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>231000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1797,138 +1845,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1476000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1171000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4142000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1398000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1760000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1189000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>984000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1354000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1410000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1372000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>148000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>769000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>808000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>917000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>499000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>562000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>810000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>593000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>374000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1467000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1161000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4135000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1388000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1754000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1181000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>977000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1351000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1408000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1368000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>145000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>767000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>806000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>915000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>498000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>560000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>813000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>598000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>382000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1992,8 +2049,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,24 +2087,24 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-232000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2057,8 +2117,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,8 +2185,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2187,8 +2253,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2252,73 +2321,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1467000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1161000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4135000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1388000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1754000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1181000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>977000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1351000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1408000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1368000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>144000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>772000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>806000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>915000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>266000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>560000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>813000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>598000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>382000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2382,143 +2457,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1467000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1161000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4135000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1388000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1754000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1181000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>977000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1351000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1408000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1368000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>144000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>772000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>806000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>915000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>266000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>560000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>813000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>598000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>382000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2542,8 +2626,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2567,73 +2652,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3483000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3821000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6505000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10182000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5344000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7185000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4452000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4619000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4577000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3610000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4976000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3855000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24032000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3634000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2771000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2972000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3656000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3611000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4155000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3185000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2697,8 +2786,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2732,38 +2824,41 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>3609000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3412000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3455000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3380000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3308000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3419000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3154000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3077000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2827,8 +2922,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2892,8 +2990,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2957,203 +3058,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41380000</v>
+      </c>
+      <c r="E47" s="3">
         <v>40389000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37886000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36784000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36764000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>35222000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>33316000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33195000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41994000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41545000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>39860000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39447000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28976000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29339000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29864000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28619000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28245000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27932000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27259000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>26815000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4589000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4586000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4648000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4757000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4733000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4799000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4831000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4953000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5125000</v>
       </c>
       <c r="M48" s="3">
         <v>5125000</v>
       </c>
       <c r="N48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="O48" s="3">
         <v>4562000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1559000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1552000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1563000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1526000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1509000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1519000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1536000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80671000</v>
+      </c>
+      <c r="E49" s="3">
         <v>81070000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79427000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79827000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80177000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80381000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80746000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>81164000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81546000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>82166000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>82875000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84071000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6129000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6147000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6170000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6164000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6001000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6000000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5982000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5980000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3217,8 +3330,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3282,8 +3398,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,62 +3412,65 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>10022000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9788000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9419000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9512000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>132000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>140000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>96000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>172000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>263000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>304000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3412,73 +3534,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154251000</v>
+      </c>
+      <c r="E54" s="3">
         <v>154207000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>152081000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155451000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>160044000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>159628000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154711000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155774000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154847000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154401000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154348000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>153226000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82956000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63102000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63141000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61759000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61936000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61738000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61147000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>59360000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3502,8 +3630,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3527,203 +3656,213 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5659000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5647000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5640000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5478000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5327000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5413000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5585000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5090000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4502000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4517000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4488000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4366000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7541000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7406000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7825000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7290000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6802000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6601000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6667000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6414000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2703000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1532000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>404000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3374000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6449000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4750000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4340000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5514000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4712000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2310000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2915000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2955000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>109000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>110000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>240000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>141000</v>
       </c>
       <c r="T58" s="3">
         <v>141000</v>
       </c>
       <c r="U58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="V58" s="3">
         <v>142000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>276000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54164000</v>
+      </c>
+      <c r="E59" s="3">
         <v>53907000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53418000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53591000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50205000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49714000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47335000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47704000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54151000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54015000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54212000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52387000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19869000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20657000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20622000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17343000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17872000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17999000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17816000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17032000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3787,112 +3926,118 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31609000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31606000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31568000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29545000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29537000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31774000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32147000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31893000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34041000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36885000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37571000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39523000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25041000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5195000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5191000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5199000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5207000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4622000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4621000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4756000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8832000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8867000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8832000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8939000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16337000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16279000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16109000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16199000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9284000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9407000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9403000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9453000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3908,8 +4053,8 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3917,8 +4062,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3982,8 +4130,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4047,8 +4198,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4112,73 +4266,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106836000</v>
+      </c>
+      <c r="E66" s="3">
         <v>105498000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>103932000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105130000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112012000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112262000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>109632000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>110436000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110151000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110586000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>111940000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112198000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>67401000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48359000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48946000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48048000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47791000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47192000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>46921000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>45637000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4202,8 +4362,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4267,8 +4428,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4332,8 +4496,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4397,8 +4564,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4462,73 +4632,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31803000</v>
+      </c>
+      <c r="E72" s="3">
         <v>30513000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29389000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28575000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24440000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23052000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21298000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20162000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19185000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17834000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16426000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15088000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18474000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17722000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16933000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15800000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15590000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15102000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14356000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13855000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4592,8 +4768,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4657,8 +4836,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4722,73 +4904,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47415000</v>
+      </c>
+      <c r="E76" s="3">
         <v>48709000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48149000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50321000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48032000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47366000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45079000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45338000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44696000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43815000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42408000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41028000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15555000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14743000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14195000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13711000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14145000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14546000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14226000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13723000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4852,143 +5040,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1467000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1161000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4135000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1388000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1754000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1181000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>977000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1351000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1408000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1368000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>144000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>772000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>806000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>915000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>266000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>560000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>813000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>598000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>382000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5012,73 +5209,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>734000</v>
+      </c>
+      <c r="E83" s="3">
         <v>731000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>715000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>713000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>702000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>694000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>693000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>927000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>913000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>914000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>897000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>257000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>162000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>136000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>140000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>141000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>140000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>146000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>150000</v>
       </c>
       <c r="W83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5142,8 +5343,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5207,8 +5411,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5272,8 +5479,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5337,8 +5547,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5402,73 +5615,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-296000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1093000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5092000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>515000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2856000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1887000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2793000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2461000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1039000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3192000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>624000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>995000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2025000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>575000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1235000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>697000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1579000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>952000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5492,73 +5711,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-258000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-242000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-319000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-252000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-256000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-267000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-310000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-243000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-303000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-194000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-182000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-126000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-103000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-131000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-146000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-103000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-91000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-99000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5622,8 +5845,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5687,73 +5913,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-710000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-717000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4420000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-938000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-237000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-269000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-271000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-304000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-634000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>475000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>125000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-603000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-368000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-615000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-117000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-985000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5777,20 +6009,21 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-330000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-342000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-345000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5842,8 +6075,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5907,8 +6143,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5972,8 +6211,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6037,199 +6279,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1728000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-312000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4400000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19657000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-530000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-683000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-825000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-628000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-515000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>30000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>48000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-37000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>19000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>23000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-36000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4839000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2329000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-237000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>834000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>967000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1121000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20398000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>863000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-201000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-684000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>45000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-544000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>970000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-39000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,170 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45756000</v>
+      </c>
+      <c r="E8" s="3">
         <v>44356000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43190000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40972000</v>
       </c>
-      <c r="G8" s="3">
-        <v>41830000</v>
-      </c>
       <c r="H8" s="3">
-        <v>40898000</v>
+        <v>41879000</v>
       </c>
       <c r="I8" s="3">
+        <v>40870000</v>
+      </c>
+      <c r="J8" s="3">
         <v>39303000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38294000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38338000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38607000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38842000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37956000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14255000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11458000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11477000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11380000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10543000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10495000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10427000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10481000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9948000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,8 +895,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,8 +966,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -983,8 +995,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1051,8 +1064,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,144 +1135,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>133000</v>
       </c>
-      <c r="G14" s="3">
-        <v>-4064000</v>
-      </c>
       <c r="H14" s="3">
-        <v>-78000</v>
+        <v>-4015000</v>
       </c>
       <c r="I14" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="J14" s="3">
         <v>144000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>251000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E15" s="3">
         <v>501000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>503000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>495000</v>
       </c>
       <c r="G15" s="3">
         <v>495000</v>
       </c>
       <c r="H15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="I15" s="3">
         <v>493000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>496000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>498000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>735000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>734000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>737000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>743000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>136000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>27000</v>
       </c>
       <c r="S15" s="3">
         <v>27000</v>
       </c>
       <c r="T15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="U15" s="3">
         <v>28000</v>
       </c>
       <c r="V15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W15" s="3">
         <v>32000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>36000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1278,144 +1303,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44151000</v>
+      </c>
+      <c r="E17" s="3">
         <v>41994000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40994000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39145000</v>
       </c>
-      <c r="G17" s="3">
-        <v>36115000</v>
-      </c>
       <c r="H17" s="3">
-        <v>38758000</v>
+        <v>36164000</v>
       </c>
       <c r="I17" s="3">
+        <v>38730000</v>
+      </c>
+      <c r="J17" s="3">
         <v>36640000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36506000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36686000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36433000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36656000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35716000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13529000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10425000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10319000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10105000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9785000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9671000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9293000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9591000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9343000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1605000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2362000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2196000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1827000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5715000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2140000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2663000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1788000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1652000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2174000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2186000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2240000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>726000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1158000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1275000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>758000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>824000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1134000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>890000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>605000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1440,8 +1472,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1508,135 +1541,141 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2348000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3096000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2927000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2542000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6428000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2842000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3357000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2481000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2579000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3087000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3100000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3137000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>983000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1294000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1415000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>899000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>963000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1274000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1036000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>755000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E22" s="3">
         <v>303000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>298000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>314000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>337000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>336000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>374000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>391000</v>
       </c>
       <c r="K22" s="3">
         <v>391000</v>
       </c>
       <c r="L22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="M22" s="3">
         <v>411000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>428000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>452000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>498000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>56000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>57000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1644,144 +1683,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2059000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1898000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1513000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5378000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1804000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2289000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1397000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1261000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1763000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1758000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1788000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>228000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1102000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1218000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>758000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>824000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1134000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>890000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>605000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E24" s="3">
         <v>424000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>422000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>342000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1236000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>406000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>529000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>208000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>277000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>409000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>348000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>416000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>80000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>264000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>294000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>301000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>259000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>262000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>324000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>297000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>231000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1848,144 +1896,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1635000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1476000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1171000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4142000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1398000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1760000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1189000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>984000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1354000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1410000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1372000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>148000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>769000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>808000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>917000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>499000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>562000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>810000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>593000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>374000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1621000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1467000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1161000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4135000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1388000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1754000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1181000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>977000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1351000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1408000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1368000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>145000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>767000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>806000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>915000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>498000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>560000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>813000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>598000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>382000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2052,8 +2109,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,24 +2150,24 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-232000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2120,8 +2180,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2188,8 +2251,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2256,8 +2322,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2324,76 +2393,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1621000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1467000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1161000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4135000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1388000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1754000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1181000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>977000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1351000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1408000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1368000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>144000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>772000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>806000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>915000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>266000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>560000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>813000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>598000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>382000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2460,149 +2535,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1621000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1467000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1161000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4135000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1388000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1754000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1181000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>977000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1351000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1408000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1368000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>144000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>772000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>806000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>915000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>266000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>560000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>813000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>598000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>382000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2627,8 +2711,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2653,76 +2738,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5081000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3483000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3821000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6505000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10182000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5344000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7185000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4452000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4619000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4577000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3610000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4976000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3855000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24032000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3634000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2771000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2972000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3656000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3611000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4155000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3185000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2789,8 +2878,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2827,38 +2919,41 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3609000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3412000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3455000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3380000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3308000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3419000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3154000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3077000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2925,8 +3020,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2993,8 +3091,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3061,212 +3162,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34429000</v>
+      </c>
+      <c r="E47" s="3">
         <v>41380000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>40389000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>37886000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36784000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36764000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>35222000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33316000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33195000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41994000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41545000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>39860000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39447000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28976000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29339000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29864000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28619000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28245000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27932000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27259000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>26815000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4143000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4589000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4586000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4648000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4757000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4733000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4799000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4831000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4953000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5125000</v>
       </c>
       <c r="N48" s="3">
         <v>5125000</v>
       </c>
       <c r="O48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="P48" s="3">
         <v>4562000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1559000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1554000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1552000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1563000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1526000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1509000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1519000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1536000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79913000</v>
+      </c>
+      <c r="E49" s="3">
         <v>80671000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>81070000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79427000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79827000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80177000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80381000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80746000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81546000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>82166000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>82875000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>84071000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6129000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6147000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6170000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6164000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6001000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6000000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5982000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5980000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3333,8 +3446,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3401,13 +3517,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>10057000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3415,62 +3534,65 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>10022000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9788000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9419000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9512000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>132000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>140000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>96000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>172000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>199000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>263000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>304000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3537,76 +3659,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154889000</v>
+      </c>
+      <c r="E54" s="3">
         <v>154251000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154207000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>152081000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155451000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>160044000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>159628000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154711000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155774000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154847000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154401000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154348000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>153226000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82956000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63102000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63141000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61759000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61936000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61738000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61147000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>59360000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3631,8 +3759,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3657,212 +3786,222 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6655000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5659000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5647000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5640000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5478000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5327000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5413000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5585000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5090000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4502000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4517000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4488000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4366000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7541000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7406000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7825000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7290000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6802000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6601000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6667000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6414000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2703000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1532000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>404000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3374000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6449000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4750000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4340000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5514000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4712000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2310000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2915000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2955000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>109000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>110000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>240000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>141000</v>
       </c>
       <c r="U58" s="3">
         <v>141000</v>
       </c>
       <c r="V58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="W58" s="3">
         <v>142000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>276000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49257000</v>
+      </c>
+      <c r="E59" s="3">
         <v>54164000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53907000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53418000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53591000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50205000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49714000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47335000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47704000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54151000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54015000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54212000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>52387000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19869000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20657000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20622000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17343000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17872000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17999000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17816000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17032000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3929,118 +4068,124 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31125000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31609000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31606000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31568000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29545000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29537000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31774000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32147000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31893000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34041000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36885000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37571000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39523000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25041000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5195000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5191000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5199000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5207000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4622000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4621000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4756000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14769000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8832000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8867000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8832000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8939000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16337000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16279000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16109000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16199000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9284000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9407000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9403000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9453000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4056,8 +4201,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4065,8 +4210,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4133,8 +4281,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4201,8 +4352,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4269,76 +4423,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107777000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106836000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105498000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>103932000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>105130000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112012000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112262000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>109632000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>110436000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110151000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110586000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>111940000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112198000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>67401000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48359000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48946000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48048000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47791000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47192000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>46921000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>45637000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4363,8 +4523,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4431,8 +4592,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4499,8 +4663,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4567,8 +4734,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4635,76 +4805,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>32593000</v>
+      </c>
+      <c r="E72" s="3">
         <v>31803000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30513000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29389000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28575000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24440000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23052000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21298000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20162000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19185000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17834000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16426000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15088000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18474000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17722000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16933000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15800000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15590000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15102000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14356000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13855000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4771,8 +4947,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4839,8 +5018,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4907,76 +5089,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47112000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47415000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48709000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48149000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50321000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48032000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47366000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45079000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45338000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44696000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43815000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42408000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41028000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15555000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14743000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14195000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13711000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14145000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14546000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14226000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13723000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5043,149 +5231,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1621000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1467000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1161000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4135000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1388000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1754000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1181000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>977000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1351000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1408000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1368000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>144000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>772000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>806000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>915000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>266000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>560000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>813000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>598000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>382000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5210,76 +5407,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>743000</v>
+      </c>
+      <c r="E83" s="3">
         <v>734000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>731000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>715000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>713000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>702000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>694000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>693000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>927000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>913000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>914000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>897000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>257000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>162000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>136000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>140000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>141000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>139000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>140000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>146000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>150000</v>
       </c>
       <c r="X83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5346,8 +5547,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5414,8 +5618,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5482,8 +5689,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5550,8 +5760,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5618,76 +5831,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2119000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-296000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1093000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5092000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>515000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2856000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1887000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2793000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2461000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1039000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3192000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>624000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>995000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2025000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>575000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1235000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>697000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1579000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>952000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5712,76 +5931,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-304000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-350000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-258000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-242000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-319000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-252000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-256000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-267000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-310000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-243000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-303000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-194000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-182000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-117000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-103000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-131000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-146000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-103000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-91000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-99000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5848,8 +6071,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5916,76 +6142,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-710000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-717000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4420000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-938000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-237000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-269000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-271000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-304000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-634000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>475000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>125000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-99000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-603000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-368000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-615000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-117000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-985000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6010,23 +6242,24 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-330000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-342000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-345000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6078,8 +6311,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6146,8 +6382,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6214,8 +6453,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6282,76 +6524,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2371000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-312000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4400000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>19657000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-530000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-683000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-825000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-628000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-515000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>30000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6359,131 +6607,137 @@
         <v>-19000</v>
       </c>
       <c r="E101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>48000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>19000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>23000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-36000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2008000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-338000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4839000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2329000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-237000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>834000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>967000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1121000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20398000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>863000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-201000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-684000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>45000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-544000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>970000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-39000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,176 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43686000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45756000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44356000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43190000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40972000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41879000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40870000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39303000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38294000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38338000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38607000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38842000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37956000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14255000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11458000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11477000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11380000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10543000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10495000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10427000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10481000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9948000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,8 +904,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,8 +978,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1008,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1080,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1138,150 +1154,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E14" s="3">
         <v>279000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>133000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-106000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>144000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>251000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>12000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>458000</v>
+      </c>
+      <c r="E15" s="3">
         <v>499000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>501000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>503000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>495000</v>
       </c>
       <c r="H15" s="3">
         <v>495000</v>
       </c>
       <c r="I15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="J15" s="3">
         <v>493000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>496000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>498000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>735000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>734000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>737000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>743000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>136000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>27000</v>
       </c>
       <c r="T15" s="3">
         <v>27000</v>
       </c>
       <c r="U15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="V15" s="3">
         <v>28000</v>
       </c>
       <c r="W15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X15" s="3">
         <v>32000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>36000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1304,150 +1329,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41838000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44151000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41994000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40994000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39145000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36164000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38730000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36640000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36506000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36686000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36433000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36656000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35716000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13529000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10425000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10319000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10105000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9785000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9671000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9293000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9591000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9343000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1848000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1605000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2362000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2196000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1827000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5715000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2140000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2663000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1788000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1652000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2174000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2186000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2240000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>726000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1033000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1158000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1275000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>758000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>824000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1134000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>890000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>605000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1473,8 +1505,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,141 +1577,147 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2565000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2348000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3096000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2927000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2542000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6428000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2842000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3357000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2481000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2579000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3087000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3100000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3137000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>983000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1195000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1294000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1415000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>899000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>963000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1274000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1036000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>755000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E22" s="3">
         <v>293000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>303000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>298000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>314000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>337000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>336000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>374000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>391000</v>
       </c>
       <c r="L22" s="3">
         <v>391000</v>
       </c>
       <c r="M22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="N22" s="3">
         <v>411000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>428000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>452000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>498000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>56000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>57000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1686,150 +1725,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1312000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2059000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1898000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1513000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5378000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1804000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2289000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1397000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1261000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1763000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1758000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1788000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>228000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1033000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1102000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1218000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>758000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>824000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1134000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>890000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>605000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E24" s="3">
         <v>179000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>424000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>422000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>342000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1236000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>406000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>529000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>208000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>277000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>409000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>348000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>416000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>80000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>264000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>294000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>301000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>259000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>262000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>324000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>297000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>231000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1899,150 +1947,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1133000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1635000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1476000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1171000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4142000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1398000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1760000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1189000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>984000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1354000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1410000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1372000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>148000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>769000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>808000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>917000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>499000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>562000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>810000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>593000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>374000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1116000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1621000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1467000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1161000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4135000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1388000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1754000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1181000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>977000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1351000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1408000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1368000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>145000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>767000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>806000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>915000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>498000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>560000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>813000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>598000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>382000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2112,31 +2169,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2153,24 +2213,24 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-232000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2183,8 +2243,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2254,8 +2317,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2325,8 +2391,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2396,79 +2465,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1116000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1621000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1467000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1161000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4135000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1388000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1754000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1181000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>977000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1351000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1408000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1368000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>144000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>772000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>806000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>915000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>266000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>560000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>813000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>598000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>382000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2538,155 +2613,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1116000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1621000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1467000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1161000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4135000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1388000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1754000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1181000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>977000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1351000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1408000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1368000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>144000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>772000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>806000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>915000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>266000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>560000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>813000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>598000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>382000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2712,8 +2796,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2739,79 +2824,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5081000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3483000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3821000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6505000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10182000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5344000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7185000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4452000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4619000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4577000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3610000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4976000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3855000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24032000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3634000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2771000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2972000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3656000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3611000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4155000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3185000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2881,8 +2970,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2922,38 +3014,41 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>3609000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3412000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3455000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3380000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3308000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3419000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3154000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3077000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3023,8 +3118,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3094,8 +3192,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3165,221 +3266,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34427000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34429000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41380000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>40389000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>37886000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36784000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36764000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>35222000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33316000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33195000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41994000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41545000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>39860000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>39447000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28976000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29339000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29864000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28619000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28245000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27932000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27259000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>26815000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4089000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4143000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4589000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4586000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4648000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4757000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4733000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4799000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4831000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4953000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5125000</v>
       </c>
       <c r="O48" s="3">
         <v>5125000</v>
       </c>
       <c r="P48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4562000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1559000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1554000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1552000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1563000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1526000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1509000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1519000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1536000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79518000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79913000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80671000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81070000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79427000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79827000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80177000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80381000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80746000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81164000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>81546000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>82166000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>82875000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84071000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6129000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6147000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6170000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6164000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6001000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6000000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5982000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5980000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3449,8 +3562,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3520,79 +3636,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9693000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10057000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>10022000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9788000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9419000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9512000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>132000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>140000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>96000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>172000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>199000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>263000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>304000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3662,79 +3784,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>152610000</v>
+      </c>
+      <c r="E54" s="3">
         <v>154889000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154251000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154207000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>152081000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155451000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>160044000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>159628000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154711000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155774000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154847000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154401000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154348000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>153226000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82956000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63102000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63141000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61759000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61936000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61738000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61147000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>59360000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3760,8 +3888,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3787,221 +3916,231 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6632000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6655000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5659000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5647000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5640000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5478000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5327000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5413000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5585000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5090000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4502000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4517000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4488000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4366000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7541000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7406000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7825000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7290000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6802000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6601000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6667000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6414000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2545000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2703000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1532000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>404000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3374000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6449000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4750000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4340000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5514000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4712000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2310000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2915000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2955000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>109000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>110000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>240000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>141000</v>
       </c>
       <c r="V58" s="3">
         <v>141000</v>
       </c>
       <c r="W58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="X58" s="3">
         <v>142000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>276000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49435000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49257000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54164000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53907000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53418000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53591000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50205000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49714000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47335000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47704000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54151000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54015000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54212000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>52387000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19869000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20657000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20622000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17343000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17872000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17999000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17816000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17032000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4071,124 +4210,130 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31013000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31125000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31609000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31606000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31568000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29545000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29537000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31774000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32147000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31893000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34041000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36885000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37571000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39523000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>25041000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5195000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5191000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5199000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5207000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4622000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4621000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4756000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14226000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14769000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8832000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8867000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8832000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8939000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16337000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16279000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16109000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16199000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9284000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9407000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9403000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9453000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4204,8 +4349,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4213,8 +4358,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4284,8 +4432,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4355,8 +4506,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4426,79 +4580,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106523000</v>
+      </c>
+      <c r="E66" s="3">
         <v>107777000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106836000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>105498000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>103932000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105130000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112012000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112262000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>109632000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110436000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110151000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110586000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>111940000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112198000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>67401000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48359000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48946000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48048000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47791000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47192000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>46921000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>45637000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4524,8 +4684,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4595,8 +4756,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4666,8 +4830,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4737,8 +4904,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4808,79 +4978,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33420000</v>
+      </c>
+      <c r="E72" s="3">
         <v>32593000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>31803000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30513000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>29389000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28575000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>24440000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23052000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21298000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20162000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19185000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17834000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16426000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15088000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18474000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17722000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16933000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15800000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15590000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15102000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14356000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13855000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4950,8 +5126,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5021,8 +5200,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5092,79 +5274,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46087000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47112000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47415000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48709000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48149000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50321000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48032000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47366000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45079000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45338000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44696000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43815000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42408000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41028000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15555000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14743000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14195000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13711000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14145000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14546000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14226000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13723000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5234,155 +5422,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1116000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1621000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1467000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1161000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4135000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1388000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1754000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1181000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>977000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1351000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1408000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1368000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>144000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>772000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>806000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>915000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>266000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>560000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>813000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>598000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>382000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5408,79 +5605,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E83" s="3">
         <v>743000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>734000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>731000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>715000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>713000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>702000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>694000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>693000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>927000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>913000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>914000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>897000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>257000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>162000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>136000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>140000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>141000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>139000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>140000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>146000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>150000</v>
       </c>
       <c r="Y83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5550,8 +5751,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5621,8 +5825,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5692,8 +5899,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5763,8 +5973,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5834,79 +6047,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2030000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4275000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2119000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-296000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1093000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5092000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>515000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2856000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1887000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2793000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2461000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1039000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3192000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>624000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>995000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2025000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>575000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1235000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>697000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1579000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>952000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5932,79 +6151,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-304000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-350000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-258000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-242000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-319000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-252000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-256000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-267000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-310000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-243000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-303000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-194000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-182000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-126000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-117000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-103000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-131000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-146000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-103000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-91000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-99000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6074,8 +6297,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6145,79 +6371,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="E94" s="3">
         <v>123000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-710000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-717000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4420000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-938000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-237000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-269000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-271000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-304000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-634000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>475000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>125000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-99000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-603000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-368000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-615000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-117000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-985000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6243,26 +6475,27 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-324000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-330000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-342000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-345000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6314,8 +6547,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6385,8 +6621,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6456,8 +6695,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6527,217 +6769,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2171000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-62000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-312000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4400000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19657000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-530000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-683000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-825000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-628000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-515000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>30000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19000</v>
+        <v>-23000</v>
       </c>
       <c r="E101" s="3">
         <v>-19000</v>
       </c>
       <c r="F101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>48000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-37000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>23000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-488000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2008000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-338000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4839000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2329000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-237000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>834000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>967000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1121000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20398000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>863000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-201000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-684000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>45000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-544000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>970000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-39000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,182 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45385000</v>
+      </c>
+      <c r="E8" s="3">
         <v>43686000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45756000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44356000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43190000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>40972000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41879000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40870000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39303000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38294000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38338000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38607000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38842000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37956000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14255000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11458000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11477000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11380000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10543000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10495000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10427000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10481000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9948000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,8 +990,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1021,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,8 +1096,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1157,156 +1173,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="3">
         <v>52000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>279000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>133000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-106000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>144000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>251000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>-19000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E15" s="3">
         <v>458000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>499000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>501000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>503000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>495000</v>
       </c>
       <c r="I15" s="3">
         <v>495000</v>
       </c>
       <c r="J15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="K15" s="3">
         <v>493000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>496000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>498000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>735000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>734000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>737000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>743000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>136000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>27000</v>
       </c>
       <c r="U15" s="3">
         <v>27000</v>
       </c>
       <c r="V15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="W15" s="3">
         <v>28000</v>
       </c>
       <c r="X15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>32000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>36000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1330,156 +1355,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43099000</v>
+      </c>
+      <c r="E17" s="3">
         <v>41838000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44151000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41994000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40994000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39145000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36164000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38730000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36640000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36506000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36686000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36433000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36656000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35716000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13529000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10425000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10319000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10105000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9785000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9671000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9293000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9591000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9343000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1848000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1605000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2362000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2196000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1827000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5715000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2140000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2663000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1788000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1652000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2174000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2186000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2240000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>726000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1033000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1158000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1275000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>758000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>824000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1134000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>890000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>605000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1506,8 +1538,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1580,147 +1613,153 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3045000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2565000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2348000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3096000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2927000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2542000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6428000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2842000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3357000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2481000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2579000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3087000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3100000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3137000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>983000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1195000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1294000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1415000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>899000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>963000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1274000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1036000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>755000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E22" s="3">
         <v>299000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>293000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>303000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>298000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>314000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>337000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>336000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>374000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>391000</v>
       </c>
       <c r="M22" s="3">
         <v>391000</v>
       </c>
       <c r="N22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="O22" s="3">
         <v>411000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>428000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>452000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>498000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>56000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>57000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1728,156 +1767,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1985000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1549000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1312000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2059000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1898000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1513000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5378000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1804000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2289000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1397000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1261000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1763000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1758000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1788000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>228000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1033000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1102000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1218000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>758000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>824000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1134000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>890000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>605000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E24" s="3">
         <v>351000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>179000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>424000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>422000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>342000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1236000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>406000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>529000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>208000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>277000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>409000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>348000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>416000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>80000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>264000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>294000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>301000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>259000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>262000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>324000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>297000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>231000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1950,156 +1998,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1198000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1133000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1635000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1476000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1171000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4142000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1398000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1760000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1189000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>984000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1354000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1410000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1372000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>148000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>769000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>808000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>917000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>499000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>562000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>810000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>593000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>374000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1183000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1116000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1621000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1467000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1161000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4135000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1388000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1754000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1181000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>977000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1351000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1408000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>145000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>767000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>806000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>915000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>498000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>560000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>813000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>598000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>382000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2172,8 +2229,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2198,8 +2258,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2216,24 +2276,24 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>5000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-232000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2306,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2320,8 +2383,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2394,8 +2460,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2468,82 +2537,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1183000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1116000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1621000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1467000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1161000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4135000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1388000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1754000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1181000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>977000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1351000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1408000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>144000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>772000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>806000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>915000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>266000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>560000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>813000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>598000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>382000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2616,161 +2691,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1183000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1116000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1621000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1467000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1161000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4135000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1388000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1754000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1181000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>977000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1351000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1408000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>144000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>772000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>806000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>915000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>266000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>560000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>813000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>598000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>382000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2797,8 +2881,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2825,82 +2910,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4421000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4424000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5081000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3483000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3821000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6505000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10182000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5344000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7185000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4452000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4619000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4577000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3610000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4976000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3855000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24032000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3634000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2771000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2972000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3656000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3611000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4155000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3185000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2973,8 +3062,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3017,38 +3109,41 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>3609000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3412000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3455000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3380000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3308000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3419000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3154000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3077000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3121,8 +3216,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3195,8 +3293,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3269,230 +3370,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35768000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34427000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34429000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41380000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>40389000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>37886000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36784000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>36764000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35222000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33316000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33195000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41994000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41545000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>39860000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>39447000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>28976000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29339000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29864000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28619000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28245000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27932000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27259000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>26815000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4104000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4089000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4143000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4589000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4586000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4648000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4757000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4733000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4799000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4831000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4953000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5125000</v>
       </c>
       <c r="P48" s="3">
         <v>5125000</v>
       </c>
       <c r="Q48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="R48" s="3">
         <v>4562000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1559000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1554000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1552000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1563000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1526000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1509000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1519000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1536000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79086000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79518000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79913000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80671000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81070000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79427000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>79827000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80177000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80381000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80746000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>81164000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>81546000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>82166000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>82875000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>84071000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6129000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6147000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6170000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6164000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6001000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6000000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5982000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5980000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3565,8 +3678,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3639,82 +3755,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9052000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9693000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10057000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>10022000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9788000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9419000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9512000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>132000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>140000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>96000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>172000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>199000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>263000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>304000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3787,82 +3909,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>152630000</v>
+      </c>
+      <c r="E54" s="3">
         <v>152610000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154889000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154251000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154207000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>152081000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155451000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>160044000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>159628000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154711000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155774000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154847000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154401000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154348000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>153226000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82956000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63102000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63141000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61759000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61936000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61738000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61147000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>59360000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3889,8 +4017,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3917,230 +4046,240 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7142000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6632000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6655000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5659000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5647000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5640000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5478000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5327000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5413000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5585000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5090000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4502000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4517000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4488000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4366000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7541000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7406000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7825000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7290000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6802000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6601000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6667000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6414000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2397000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2173000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2545000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2703000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1532000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>404000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3374000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6449000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4750000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4340000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5514000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4712000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2310000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2915000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2955000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>109000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>110000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>240000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>141000</v>
       </c>
       <c r="W58" s="3">
         <v>141000</v>
       </c>
       <c r="X58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>142000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>276000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49491000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49435000</v>
       </c>
-      <c r="E59" s="3">
-        <v>49257000</v>
-      </c>
       <c r="F59" s="3">
+        <v>49285000</v>
+      </c>
+      <c r="G59" s="3">
         <v>54164000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53907000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53418000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53591000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50205000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49714000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47335000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47704000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54151000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54015000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54212000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52387000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19869000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20657000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20622000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17343000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17872000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17999000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17816000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17032000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4213,130 +4352,136 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30984000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31013000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31125000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31609000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31606000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31568000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>29545000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29537000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31774000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32147000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31893000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34041000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36885000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37571000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39523000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>25041000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5195000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5191000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5199000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5207000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4622000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4621000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4756000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13865000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14226000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14769000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8832000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8867000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8832000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8939000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16337000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16279000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16109000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16199000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9284000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9407000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9403000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9453000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4352,8 +4497,8 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4361,8 +4506,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4435,8 +4583,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4509,8 +4660,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4583,82 +4737,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106738000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106523000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>107777000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106836000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>105498000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103932000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105130000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112012000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112262000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>109632000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110436000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110151000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110586000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>111940000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112198000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>67401000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48359000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48946000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48048000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47791000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>47192000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>46921000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>45637000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4685,8 +4845,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4759,8 +4920,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4833,8 +4997,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4907,8 +5074,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4981,82 +5151,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34626000</v>
+      </c>
+      <c r="E72" s="3">
         <v>33420000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>32593000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31803000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30513000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>29389000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28575000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>24440000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23052000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21298000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20162000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19185000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17834000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16426000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15088000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18474000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17722000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16933000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15800000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15590000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15102000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14356000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13855000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5129,8 +5305,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5203,8 +5382,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5277,82 +5459,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45892000</v>
+      </c>
+      <c r="E76" s="3">
         <v>46087000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47112000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47415000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48709000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48149000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50321000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48032000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47366000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45079000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45338000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>44696000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43815000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42408000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41028000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15555000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14743000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14195000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13711000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14145000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14546000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14226000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13723000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5425,161 +5613,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1183000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1116000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1621000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1467000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1161000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4135000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1388000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1754000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1181000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>977000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1351000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1408000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1368000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>144000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>772000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>806000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>915000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>266000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>560000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>813000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>598000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>382000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5606,82 +5803,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E83" s="3">
         <v>717000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>743000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>734000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>731000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>715000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>713000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>702000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>694000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>693000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>927000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>913000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>914000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>897000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>257000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>162000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>136000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>140000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>141000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>139000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>140000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>146000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>150000</v>
       </c>
       <c r="Z83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5754,8 +5955,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5828,8 +6032,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5902,8 +6109,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5976,8 +6186,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6050,82 +6263,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2030000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4275000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2119000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-296000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1093000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5092000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>515000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2856000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1887000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2793000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2461000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1039000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3192000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>126000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>624000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>995000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2025000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>575000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1235000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>697000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1579000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>952000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6152,82 +6371,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-288000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-304000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-350000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-258000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-242000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-319000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-252000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-256000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-267000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-310000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-243000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-303000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-182000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-126000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-117000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-103000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-131000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-146000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-103000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-91000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-99000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6300,8 +6523,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6374,82 +6600,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-324000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>123000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-710000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-717000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4420000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-938000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-237000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-269000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-271000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-304000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-634000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>475000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>125000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-99000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-603000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-368000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-615000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-985000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6476,29 +6708,30 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-357000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-324000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-330000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-342000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-345000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6550,8 +6783,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6624,8 +6860,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6698,8 +6937,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6772,226 +7014,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-916000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2171000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-312000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4400000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19657000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-530000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-683000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-825000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-628000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-515000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>30000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-19000</v>
       </c>
       <c r="F101" s="3">
         <v>-19000</v>
       </c>
       <c r="G101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-37000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-21000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>27000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>23000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-488000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2008000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-338000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4839000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2329000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-237000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>834000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>967000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1121000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20398000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>863000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-201000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-684000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>45000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-544000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>970000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-39000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,188 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45199000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45385000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43686000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45756000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44356000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43190000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40972000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41879000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40870000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39303000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38294000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38338000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38607000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38842000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37956000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14255000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11458000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11477000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11380000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10543000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10495000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10427000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10481000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9948000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +922,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1002,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1034,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1099,8 +1112,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1176,162 +1192,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1711000</v>
+      </c>
+      <c r="E14" s="3">
         <v>30000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>279000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>133000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-106000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>144000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>251000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>-19000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>7000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E15" s="3">
         <v>501000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>458000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>499000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>501000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>503000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>495000</v>
       </c>
       <c r="J15" s="3">
         <v>495000</v>
       </c>
       <c r="K15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="L15" s="3">
         <v>493000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>496000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>498000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>735000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>734000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>737000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>743000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>136000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>27000</v>
       </c>
       <c r="V15" s="3">
         <v>27000</v>
       </c>
       <c r="W15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="X15" s="3">
         <v>28000</v>
       </c>
       <c r="Y15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>32000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>36000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1356,162 +1381,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41404000</v>
+      </c>
+      <c r="E17" s="3">
         <v>43099000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41838000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44151000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41994000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40994000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39145000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36164000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38730000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36640000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36506000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36686000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36433000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36656000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35716000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13529000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10425000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10319000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10105000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9785000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9671000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9293000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9591000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9343000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3795000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2286000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1848000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1605000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2362000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2196000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1827000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5715000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2140000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2663000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1788000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1652000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2174000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2186000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2240000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>726000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1033000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1158000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1275000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>758000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>824000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1134000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>890000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>605000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1539,8 +1571,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1616,153 +1649,159 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4521000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3045000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2565000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2348000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3096000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2927000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2542000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6428000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2842000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3357000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2481000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2579000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3087000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3100000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3137000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>983000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1195000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1294000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1415000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>899000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>963000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1274000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1036000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>755000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E22" s="3">
         <v>301000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>299000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>293000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>303000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>298000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>314000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>337000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>336000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>374000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>391000</v>
       </c>
       <c r="N22" s="3">
         <v>391000</v>
       </c>
       <c r="O22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="P22" s="3">
         <v>411000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>428000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>452000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>498000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>56000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>57000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1770,162 +1809,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3491000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1985000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1549000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1312000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2059000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1898000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1513000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5378000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1804000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2289000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1397000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1261000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1763000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1758000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1788000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>228000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1033000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1102000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1218000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>758000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>824000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1134000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>890000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>605000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E24" s="3">
         <v>413000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>351000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>179000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>424000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>422000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>342000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1236000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>406000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>529000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>208000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>277000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>409000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>348000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>416000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>264000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>294000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>301000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>259000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>262000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>324000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>297000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>231000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2001,162 +2049,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2778000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1572000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1198000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1133000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1635000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1476000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1171000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4142000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1398000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1760000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1189000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>984000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1354000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1410000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1372000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>148000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>769000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>808000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>917000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>499000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>562000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>810000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>593000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>374000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2757000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1559000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1183000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1116000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1621000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1467000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1161000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4135000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1388000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1754000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1181000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>977000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1351000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1368000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>145000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>767000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>806000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>915000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>498000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>560000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>813000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>598000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>382000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2232,8 +2289,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2261,8 +2321,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2279,24 +2339,24 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>5000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-232000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2309,8 +2369,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2386,8 +2449,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2463,8 +2529,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2540,85 +2609,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2757000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1559000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1183000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1116000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1621000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1467000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1161000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4135000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1388000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1754000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1181000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>977000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1351000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1368000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>144000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>772000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>806000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>915000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>266000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>560000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>813000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>598000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>382000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2694,167 +2769,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2757000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1559000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1183000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1116000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1621000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1467000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1161000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4135000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1388000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1754000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1181000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>977000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1351000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1368000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>144000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>772000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>806000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>915000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>266000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>560000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>813000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>598000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>382000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2882,8 +2966,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2911,85 +2996,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7079000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4421000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4424000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5081000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3483000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3821000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6505000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10182000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5344000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7185000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4452000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4619000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4577000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4976000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3855000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24032000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3634000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2771000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2972000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3656000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3611000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4155000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3185000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3065,8 +3154,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3112,38 +3204,41 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>3609000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3412000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3455000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3380000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3308000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3419000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3154000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3077000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3219,8 +3314,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3296,8 +3394,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3373,239 +3474,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34331000</v>
+      </c>
+      <c r="E47" s="3">
         <v>35768000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34427000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34429000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41380000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>40389000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>37886000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>36784000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36764000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35222000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33316000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33195000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41994000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41545000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>39860000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>39447000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>28976000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29339000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29864000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28619000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28245000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27932000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27259000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>26815000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4140000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4104000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4089000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4143000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4589000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4586000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4648000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4757000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4733000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4799000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4831000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4953000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5125000</v>
       </c>
       <c r="Q48" s="3">
         <v>5125000</v>
       </c>
       <c r="R48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="S48" s="3">
         <v>4562000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1559000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1554000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1552000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1563000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1526000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1509000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1519000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1536000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>78692000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79086000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79518000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79913000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80671000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81070000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>79427000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>79827000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80177000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80381000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80746000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>81164000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81546000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>82166000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>82875000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>84071000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6129000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6147000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6170000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6164000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6001000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6000000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5982000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5980000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3681,8 +3794,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3758,85 +3874,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>9052000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9693000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10057000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>10022000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9788000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9419000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9512000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>132000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>140000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>96000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>39000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>172000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>199000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>263000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>304000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3912,85 +4034,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144209000</v>
+      </c>
+      <c r="E54" s="3">
         <v>152630000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>152610000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154889000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154251000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154207000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>152081000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155451000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160044000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>159628000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154711000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155774000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154847000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154401000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154348000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>153226000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82956000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63102000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63141000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61759000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61936000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61738000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61147000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>59360000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4018,8 +4146,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4047,239 +4176,249 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6870000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7142000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6632000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6655000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5659000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5647000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5640000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5478000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5327000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5413000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5585000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5090000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4502000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4517000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4488000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4366000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7541000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7406000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7825000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7290000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6802000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6601000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6667000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6414000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3488000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2397000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2173000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2545000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2703000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1532000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>404000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3374000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6449000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4750000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4340000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5514000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4712000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2310000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2915000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2955000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>109000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>110000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>240000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>141000</v>
       </c>
       <c r="X58" s="3">
         <v>141000</v>
       </c>
       <c r="Y58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>142000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>276000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50040000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49491000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49435000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49285000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54164000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53907000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53418000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53591000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50205000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49714000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47335000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47704000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54151000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54015000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54212000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52387000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19869000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20657000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20622000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17343000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17872000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17999000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17816000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17032000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4355,136 +4494,142 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28090000</v>
+      </c>
+      <c r="E61" s="3">
         <v>30984000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31013000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31125000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31609000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31606000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31568000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>29545000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29537000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31774000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32147000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31893000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34041000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36885000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37571000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>39523000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25041000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5195000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5191000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5199000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5207000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4622000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4621000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4756000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7777000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13865000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14226000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14769000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8832000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8867000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8832000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8939000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16337000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16279000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16109000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16199000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9284000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9407000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9403000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9453000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4500,8 +4645,8 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4509,8 +4654,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4586,8 +4734,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4663,8 +4814,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4740,85 +4894,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99168000</v>
+      </c>
+      <c r="E66" s="3">
         <v>106738000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106523000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>107777000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106836000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105498000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>103932000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105130000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112012000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112262000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>109632000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110436000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110151000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110586000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>111940000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112198000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67401000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48359000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48946000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48048000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>47791000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>47192000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>46921000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>45637000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4846,8 +5006,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4923,8 +5084,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5000,8 +5164,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5077,8 +5244,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5154,85 +5324,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37041000</v>
+      </c>
+      <c r="E72" s="3">
         <v>34626000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33420000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>32593000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31803000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30513000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>29389000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28575000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24440000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23052000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21298000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20162000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19185000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17834000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16426000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15088000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18474000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17722000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16933000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15800000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15590000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15102000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14356000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13855000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5308,8 +5484,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5385,8 +5564,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5462,85 +5644,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45041000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45892000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46087000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47112000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47415000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48709000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48149000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50321000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48032000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47366000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45079000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45338000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44696000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43815000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42408000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41028000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15555000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14743000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14195000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13711000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14145000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14546000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14226000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13723000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5616,167 +5804,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2757000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1559000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1183000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1116000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1621000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1467000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1161000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4135000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1388000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1754000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1181000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>977000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1351000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1368000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>144000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>772000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>806000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>915000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>266000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>560000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>813000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>598000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>382000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5804,85 +6001,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E83" s="3">
         <v>759000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>717000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>743000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>734000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>731000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>715000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>713000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>702000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>694000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>693000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>927000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>913000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>914000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>897000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>257000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>162000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>136000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>140000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>141000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>139000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>140000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>146000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>150000</v>
       </c>
       <c r="AA83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5958,8 +6159,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6035,8 +6239,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6112,8 +6319,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6189,8 +6399,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6266,85 +6479,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3283000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1244000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2030000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4275000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2119000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-296000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1093000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5092000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>515000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2856000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1887000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2793000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2461000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3192000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>126000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>624000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>995000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2025000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>575000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1235000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>697000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1579000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>952000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6372,85 +6591,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-324000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-288000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-304000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-350000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-258000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-242000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-319000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-252000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-256000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-267000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-310000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-243000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-303000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-194000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-182000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-126000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-117000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-103000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-131000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-146000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-91000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-99000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6526,8 +6749,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6603,85 +6829,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4446000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-408000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-324000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>123000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-710000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-717000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4420000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-938000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-237000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-269000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-271000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-304000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-634000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>475000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>125000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-99000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-603000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-368000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-615000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-117000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-985000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6709,32 +6941,33 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-341000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-352000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-357000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-324000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-330000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-342000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-345000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6786,8 +7019,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6863,8 +7099,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6940,8 +7179,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7017,235 +7259,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5517000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-916000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2171000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-312000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4400000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19657000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-530000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-683000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-825000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-628000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-515000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>30000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-57000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-23000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-19000</v>
       </c>
       <c r="G101" s="3">
         <v>-19000</v>
       </c>
       <c r="H101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>48000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-37000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-21000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>27000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>23000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2194000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-137000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-488000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2008000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-338000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4839000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2329000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-237000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>834000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>967000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1121000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20398000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>863000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-201000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-684000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>45000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-544000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>970000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-39000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,188 +665,194 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45751000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45199000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45385000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43686000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45756000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44356000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43190000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40972000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41879000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40870000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39303000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38294000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38338000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38607000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38842000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37956000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14255000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11458000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11477000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11380000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10543000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10495000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10427000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10481000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9948000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -925,8 +931,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1014,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,8 +1047,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,8 +1128,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,168 +1211,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1711000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>30000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>279000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>133000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-106000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>144000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>251000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>-19000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>7000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E15" s="3">
         <v>460000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>501000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>458000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>499000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>501000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>503000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>495000</v>
       </c>
       <c r="K15" s="3">
         <v>495000</v>
       </c>
       <c r="L15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="M15" s="3">
         <v>493000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>496000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>498000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>735000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>734000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>737000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>743000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>136000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>27000</v>
       </c>
       <c r="W15" s="3">
         <v>27000</v>
       </c>
       <c r="X15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Y15" s="3">
         <v>28000</v>
       </c>
       <c r="Z15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AA15" s="3">
         <v>32000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>36000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1382,168 +1407,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44099000</v>
+      </c>
+      <c r="E17" s="3">
         <v>41404000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43099000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41838000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44151000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41994000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40994000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>39145000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36164000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38730000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36640000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36506000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36686000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36433000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36656000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35716000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13529000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10425000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10319000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10105000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9785000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9671000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9293000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9591000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9343000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3795000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2286000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1848000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1605000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2362000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2196000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1827000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5715000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2140000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2663000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1788000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1652000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2174000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2186000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2240000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>726000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1033000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1158000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1275000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>758000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>824000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1134000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>890000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>605000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1572,8 +1604,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1652,159 +1685,165 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4521000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3045000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2565000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2348000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3096000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2927000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2542000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6428000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2842000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3357000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2481000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2579000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3087000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3100000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3137000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>983000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1195000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1294000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1415000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>899000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>963000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1274000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1036000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>755000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E22" s="3">
         <v>304000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>301000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>299000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>293000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>303000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>298000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>314000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>337000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>336000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>374000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>391000</v>
       </c>
       <c r="O22" s="3">
         <v>391000</v>
       </c>
       <c r="P22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>411000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>428000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>452000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>498000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>56000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>57000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1812,168 +1851,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3491000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1985000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1549000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1312000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2059000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1898000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1513000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5378000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1804000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2289000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1397000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1261000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1763000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1758000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1788000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>228000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1033000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1102000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1218000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>758000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>824000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1134000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>890000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>605000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E24" s="3">
         <v>713000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>413000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>351000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>179000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>424000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>422000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>342000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1236000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>406000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>529000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>208000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>277000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>409000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>348000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>416000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>264000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>294000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>301000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>259000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>262000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>324000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>297000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>231000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2052,168 +2100,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2778000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1572000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1198000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1133000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1635000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1476000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1171000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4142000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1398000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1760000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1189000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>984000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1354000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1410000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1372000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>148000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>769000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>808000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>917000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>499000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>562000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>810000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>593000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>374000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2757000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1559000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1183000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1116000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1621000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1467000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1161000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4135000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1388000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1754000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1181000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>977000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1408000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1368000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>767000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>806000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>915000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>498000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>560000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>813000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>598000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>382000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2292,8 +2349,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2324,8 +2384,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2342,24 +2402,24 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>5000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-232000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2432,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2452,8 +2515,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2532,8 +2598,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2612,88 +2681,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2757000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1559000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1183000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1116000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1621000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1467000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1161000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4135000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1388000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1754000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1181000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>977000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1408000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1368000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>144000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>772000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>806000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>915000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>266000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>560000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>813000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>598000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>382000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2772,173 +2847,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2757000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1559000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1183000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1116000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1621000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1467000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1161000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4135000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1388000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1754000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1181000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>977000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1408000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1368000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>144000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>772000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>806000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>915000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>266000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>560000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>813000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>598000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>382000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2967,8 +3051,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2997,88 +3082,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5924000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7079000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4421000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4424000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5081000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3483000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3821000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6505000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10182000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5344000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7185000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4452000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4619000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4577000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3610000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4976000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3855000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24032000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3634000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2771000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2972000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3656000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3611000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4155000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3185000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3157,8 +3246,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3207,38 +3299,41 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>3609000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3412000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3455000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3380000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3308000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3419000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3154000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3077000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3317,8 +3412,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3397,8 +3495,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3477,248 +3578,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34411000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34331000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>35768000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34427000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34429000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41380000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>40389000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>37886000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36784000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36764000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35222000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33316000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33195000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41994000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41545000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>39860000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>39447000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>28976000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29339000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29864000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28619000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>28245000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27932000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27259000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>26815000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4140000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4104000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4089000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4143000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4589000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4586000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4648000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4757000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4733000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4799000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4831000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4953000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5125000</v>
       </c>
       <c r="R48" s="3">
         <v>5125000</v>
       </c>
       <c r="S48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="T48" s="3">
         <v>4562000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1559000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1554000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1552000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1563000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1526000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1509000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1519000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1536000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>78303000</v>
+      </c>
+      <c r="E49" s="3">
         <v>78692000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79086000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79518000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79913000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80671000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>81070000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>79427000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>79827000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80177000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80381000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80746000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81164000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>81546000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>82166000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>82875000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>84071000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6129000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6147000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6170000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6164000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6001000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6000000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5982000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5980000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3797,8 +3910,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3877,8 +3993,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3886,79 +4005,82 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>9052000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9693000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10057000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>10022000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9788000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9419000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9512000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>132000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>140000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>96000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>39000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>172000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>199000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>263000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>304000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4037,88 +4159,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>143932000</v>
+      </c>
+      <c r="E54" s="3">
         <v>144209000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>152630000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>152610000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154889000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154251000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154207000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>152081000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155451000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>160044000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>159628000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154711000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155774000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154847000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154401000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>154348000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>153226000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82956000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63102000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>63141000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61759000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61936000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61738000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>61147000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>59360000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4147,8 +4275,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4177,248 +4306,258 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7775000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6870000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7142000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6632000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6655000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5659000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5647000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5640000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5478000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5327000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5413000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5585000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5090000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4502000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4517000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4488000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4366000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7541000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7406000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7825000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7290000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6802000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6601000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6667000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6414000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2993000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3488000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2397000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2173000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2545000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2703000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1532000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>404000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3374000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6449000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4750000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4340000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5514000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4712000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2310000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2915000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2955000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>109000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>110000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>240000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>141000</v>
       </c>
       <c r="Y58" s="3">
         <v>141000</v>
       </c>
       <c r="Z58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>142000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>276000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49566000</v>
+      </c>
+      <c r="E59" s="3">
         <v>50040000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49491000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49435000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49285000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54164000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53907000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53418000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53591000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50205000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49714000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47335000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47704000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54151000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54015000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54212000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>52387000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19869000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20657000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>20622000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17343000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17872000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17999000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17816000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17032000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4497,142 +4636,148 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28100000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28090000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30984000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31013000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31125000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31609000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31606000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31568000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29545000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29537000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31774000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32147000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31893000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34041000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>36885000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37571000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>39523000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25041000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5195000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5191000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5199000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5207000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4622000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4621000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4756000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7751000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7777000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13865000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14226000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14769000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8832000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8867000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8832000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8939000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16337000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16279000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16109000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16199000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9284000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9407000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9403000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9453000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4648,8 +4793,8 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4657,8 +4802,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4737,8 +4885,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4817,8 +4968,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4897,88 +5051,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99060000</v>
+      </c>
+      <c r="E66" s="3">
         <v>99168000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>106738000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106523000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>107777000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106836000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105498000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>103932000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105130000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112012000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112262000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>109632000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110436000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110151000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110586000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>111940000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>112198000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>67401000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48359000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48946000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48048000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>47791000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>47192000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>46921000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>45637000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5007,8 +5167,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5087,8 +5248,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5167,8 +5331,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5247,8 +5414,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5327,88 +5497,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37874000</v>
+      </c>
+      <c r="E72" s="3">
         <v>37041000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34626000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33420000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>32593000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31803000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30513000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>29389000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28575000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24440000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23052000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21298000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20162000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19185000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17834000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16426000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15088000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18474000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17722000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16933000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15800000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15590000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15102000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14356000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13855000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5487,8 +5663,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5567,8 +5746,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5647,88 +5829,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44872000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45041000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45892000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46087000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47112000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47415000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48709000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48149000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50321000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48032000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47366000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45079000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45338000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44696000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43815000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42408000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41028000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15555000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14743000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14195000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13711000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14145000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14546000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14226000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13723000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5807,173 +5995,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2757000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1559000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1183000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1116000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1621000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1467000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1161000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4135000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1388000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1754000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1181000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>977000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1408000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1368000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>144000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>772000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>806000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>915000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>266000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>560000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>813000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>598000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>382000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6002,88 +6199,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E83" s="3">
         <v>726000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>759000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>717000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>743000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>734000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>731000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>715000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>713000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>702000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>694000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>693000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>927000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>913000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>914000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>897000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>257000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>162000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>136000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>140000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>141000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>139000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>140000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>146000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>150000</v>
       </c>
       <c r="AB83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6162,8 +6363,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6242,8 +6446,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6322,8 +6529,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6402,8 +6612,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6482,88 +6695,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2099000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3283000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1244000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2030000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4275000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2119000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-296000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1093000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5092000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>515000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2856000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1887000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2793000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2461000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1039000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3192000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>126000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>624000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>995000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2025000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>575000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1235000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>697000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1579000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>952000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6592,88 +6811,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-338000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-324000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-288000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-304000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-350000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-258000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-242000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-319000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-252000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-256000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-267000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-310000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-243000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-303000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-194000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-182000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-126000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-117000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-103000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-131000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-146000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-91000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-99000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6752,8 +6975,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6832,88 +7058,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-616000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4446000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-408000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-324000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>123000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-710000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-717000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4420000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-938000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-237000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-269000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-271000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-304000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-634000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>475000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>125000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-99000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-603000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-368000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-615000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-117000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-985000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6942,35 +7174,36 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-334000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-341000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-352000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-357000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-324000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-330000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-342000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-345000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7022,8 +7255,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7102,8 +7338,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7182,8 +7421,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7262,244 +7504,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2636000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5517000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-916000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2171000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-312000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4400000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>19657000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-530000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-683000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-825000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-628000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-515000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>30000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-57000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-23000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-19000</v>
       </c>
       <c r="H101" s="3">
         <v>-19000</v>
       </c>
       <c r="I101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>48000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-37000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-21000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>23000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1141000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2194000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-137000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-488000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2008000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-338000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4839000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2329000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-237000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>834000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>967000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1121000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20398000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>863000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-201000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-684000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>45000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-544000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>970000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-39000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,200 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>46461000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45751000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45199000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45385000</v>
       </c>
-      <c r="G8" s="3">
-        <v>43686000</v>
-      </c>
       <c r="H8" s="3">
+        <v>43684000</v>
+      </c>
+      <c r="I8" s="3">
         <v>45756000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44356000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43190000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40972000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41879000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40870000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39303000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38294000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38338000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38607000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38842000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>37956000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14255000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11458000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11477000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11380000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10543000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10495000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10427000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10481000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9948000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,8 +940,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1048,8 +1060,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,8 +1144,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,174 +1230,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>96000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1711000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>30000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>52000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>279000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>133000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-106000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>144000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>251000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>-19000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>12000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>7000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E15" s="3">
         <v>457000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>460000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>501000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>458000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>499000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>501000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>503000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>495000</v>
       </c>
       <c r="L15" s="3">
         <v>495000</v>
       </c>
       <c r="M15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="N15" s="3">
         <v>493000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>496000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>498000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>735000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>734000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>737000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>743000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>136000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>48000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>27000</v>
       </c>
       <c r="X15" s="3">
         <v>27000</v>
       </c>
       <c r="Y15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Z15" s="3">
         <v>28000</v>
       </c>
       <c r="AA15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AB15" s="3">
         <v>32000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>36000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1408,174 +1433,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44502000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44099000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41404000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43099000</v>
       </c>
-      <c r="G17" s="3">
-        <v>41838000</v>
-      </c>
       <c r="H17" s="3">
+        <v>41818000</v>
+      </c>
+      <c r="I17" s="3">
         <v>44151000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41994000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40994000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39145000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36164000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38730000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36640000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36506000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36686000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36433000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36656000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>35716000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13529000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10425000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10319000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10105000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9785000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9671000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9293000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9591000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9343000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1959000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1652000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3795000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2286000</v>
       </c>
-      <c r="G18" s="3">
-        <v>1848000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1866000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1605000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2362000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2196000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1827000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5715000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2140000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2663000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1788000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1652000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2174000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2186000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2240000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>726000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1033000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1158000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1275000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>758000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>824000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1134000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>890000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>605000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,8 +1637,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1688,165 +1721,171 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2708000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2387000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4521000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3045000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2565000</v>
-      </c>
       <c r="H21" s="3">
+        <v>2583000</v>
+      </c>
+      <c r="I21" s="3">
         <v>2348000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3096000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2927000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2542000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6428000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2842000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3357000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2481000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2579000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3087000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3100000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3137000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>983000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1195000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1294000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1415000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>899000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>963000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1274000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1036000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>755000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E22" s="3">
         <v>324000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>304000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>301000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>299000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>293000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>303000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>298000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>314000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>337000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>336000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>374000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>391000</v>
       </c>
       <c r="P22" s="3">
         <v>391000</v>
       </c>
       <c r="Q22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="R22" s="3">
         <v>411000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>428000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>452000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>498000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>56000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>57000</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1854,174 +1893,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1328000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3491000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1985000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1549000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1567000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1312000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2059000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1898000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1513000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5378000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1804000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2289000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1397000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1763000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1758000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1788000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>228000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1033000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1102000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1218000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>758000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>824000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1134000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>890000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>605000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E24" s="3">
         <v>130000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>713000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>413000</v>
       </c>
-      <c r="G24" s="3">
-        <v>351000</v>
-      </c>
       <c r="H24" s="3">
+        <v>355000</v>
+      </c>
+      <c r="I24" s="3">
         <v>179000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>424000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>422000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>342000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1236000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>406000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>529000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>208000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>277000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>409000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>348000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>416000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>80000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>264000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>294000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>301000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>259000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>262000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>324000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>297000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>231000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2103,174 +2151,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1306000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1198000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2778000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1572000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1198000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1133000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1635000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1476000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1171000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4142000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1398000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1760000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1189000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>984000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1354000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1410000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1372000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>148000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>769000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>808000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>917000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>499000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>562000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>810000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>593000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>374000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1169000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2757000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1559000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1183000</v>
-      </c>
       <c r="H27" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1116000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1621000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1467000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1161000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4135000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1388000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1754000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1181000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>977000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1351000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1408000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1368000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>145000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>767000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>806000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>915000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>498000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>560000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>813000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>598000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>382000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2352,8 +2409,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2387,8 +2447,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2405,24 +2465,24 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>5000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-232000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2435,8 +2495,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2518,8 +2581,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2601,8 +2667,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2684,91 +2753,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1169000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2757000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1559000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1183000</v>
-      </c>
       <c r="H33" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1116000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1621000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1467000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1161000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4135000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1388000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1754000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1181000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>977000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1351000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1408000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1368000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>144000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>772000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>806000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>915000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>266000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>560000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>813000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>598000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>382000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2850,179 +2925,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1169000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2757000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1559000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1183000</v>
-      </c>
       <c r="H35" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1116000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1621000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1467000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1161000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4135000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1388000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1754000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1181000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>977000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1351000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1408000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1368000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>144000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>772000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>806000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>915000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>266000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>560000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>813000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>598000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>382000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3052,8 +3136,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3083,91 +3168,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7935000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5924000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7079000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4421000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4424000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5081000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3483000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3821000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6505000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10182000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5344000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7185000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4452000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4619000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4577000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3610000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4976000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3855000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24032000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3634000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2771000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2972000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3656000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3611000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4155000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3185000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3249,8 +3338,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3302,38 +3394,41 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>3609000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3412000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3455000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3380000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3308000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3419000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3154000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3077000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3415,8 +3510,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3498,8 +3596,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3581,257 +3682,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37628000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34411000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34331000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>35768000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34427000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34429000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41380000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>40389000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37886000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36784000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36764000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>35222000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33316000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33195000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41994000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>41545000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>39860000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>39447000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>28976000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29339000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29864000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>28619000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28245000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27932000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27259000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>26815000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4149000</v>
+        <v>3837000</v>
       </c>
       <c r="E48" s="3">
+        <v>7923000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4140000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4104000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4089000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4143000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4589000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4586000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4648000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4757000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4733000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4799000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4831000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4953000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5125000</v>
       </c>
       <c r="S48" s="3">
         <v>5125000</v>
       </c>
       <c r="T48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="U48" s="3">
         <v>4562000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1559000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1554000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1552000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1563000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1526000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1509000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1519000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1536000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77913000</v>
+      </c>
+      <c r="E49" s="3">
         <v>78303000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>78692000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79086000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79518000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79913000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80671000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>81070000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>79427000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>79827000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80177000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80381000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80746000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>81164000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>81546000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>82166000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>82875000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>84071000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6129000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6147000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6170000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6164000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6001000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6000000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5982000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5980000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3913,8 +4026,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3996,91 +4112,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>9052000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9693000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10057000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>10022000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9788000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9419000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9512000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>132000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>140000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>96000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>39000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>172000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>199000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>263000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>304000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4162,91 +4284,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>143932000</v>
+        <v>147976000</v>
       </c>
       <c r="E54" s="3">
+        <v>143885000</v>
+      </c>
+      <c r="F54" s="3">
         <v>144209000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>152630000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>152610000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154889000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154251000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154207000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>152081000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155451000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>160044000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>159628000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154711000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155774000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154847000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>154401000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>154348000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>153226000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82956000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>63102000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>63141000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61759000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61936000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>61738000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>61147000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>59360000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4276,8 +4404,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4307,257 +4436,267 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7360000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7775000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6870000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7142000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6632000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6655000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5659000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5647000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5640000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5478000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5327000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5413000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5585000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5090000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4502000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4517000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4488000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4366000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7541000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7406000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7825000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7290000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6802000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6601000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6667000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6414000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3418000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2993000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3488000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2397000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2173000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2545000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2703000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1532000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>404000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3374000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6449000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4750000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4340000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5514000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4712000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2310000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2915000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2955000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>109000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>110000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>240000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>141000</v>
       </c>
       <c r="Z58" s="3">
         <v>141000</v>
       </c>
       <c r="AA58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="AB58" s="3">
         <v>142000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>276000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49566000</v>
+        <v>53079000</v>
       </c>
       <c r="E59" s="3">
+        <v>58063000</v>
+      </c>
+      <c r="F59" s="3">
         <v>50040000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49491000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49435000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49285000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54164000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53907000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53418000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53591000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50205000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49714000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47335000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47704000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54151000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54015000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54212000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>52387000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19869000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>20657000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>20622000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17343000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17872000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17999000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17816000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17032000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4639,148 +4778,154 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29124000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28100000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28090000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30984000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>31013000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31125000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31609000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31606000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31568000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29545000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29537000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31774000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32147000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31893000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34041000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>36885000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37571000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>39523000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25041000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5195000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5191000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5199000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5207000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4622000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4621000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4756000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7751000</v>
+        <v>7707000</v>
       </c>
       <c r="E62" s="3">
+        <v>7786000</v>
+      </c>
+      <c r="F62" s="3">
         <v>7777000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13865000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14226000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14769000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8832000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8867000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8832000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8939000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16337000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16279000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16109000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16199000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9284000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9407000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9403000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9453000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4796,8 +4941,8 @@
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB62" s="3">
         <v>0</v>
@@ -4805,8 +4950,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4888,8 +5036,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4971,8 +5122,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5054,91 +5208,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99060000</v>
+        <v>103474000</v>
       </c>
       <c r="E66" s="3">
+        <v>99210000</v>
+      </c>
+      <c r="F66" s="3">
         <v>99168000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106738000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106523000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>107777000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106836000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105498000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103932000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105130000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112012000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112262000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109632000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110436000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110151000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110586000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>111940000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112198000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>67401000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48359000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48946000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48048000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>47791000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>47192000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>46921000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>45637000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5168,8 +5328,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5251,8 +5412,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5334,8 +5498,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5417,8 +5584,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5500,91 +5670,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37874000</v>
+        <v>38841000</v>
       </c>
       <c r="E72" s="3">
+        <v>37940000</v>
+      </c>
+      <c r="F72" s="3">
         <v>37041000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34626000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33420000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>32593000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31803000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30513000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29389000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28575000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24440000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23052000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21298000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20162000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19185000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17834000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16426000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15088000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18474000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17722000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16933000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15800000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15590000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15102000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14356000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13855000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5666,8 +5842,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5749,8 +5928,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5832,91 +6014,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44872000</v>
+        <v>44502000</v>
       </c>
       <c r="E76" s="3">
+        <v>44675000</v>
+      </c>
+      <c r="F76" s="3">
         <v>45041000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45892000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46087000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47112000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47415000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48709000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48149000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50321000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48032000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47366000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45079000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45338000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44696000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43815000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42408000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41028000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15555000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14743000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14195000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13711000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14145000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14546000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14226000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13723000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5998,179 +6186,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1169000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2757000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1559000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1183000</v>
-      </c>
       <c r="H81" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1116000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1621000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1467000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1161000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4135000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1388000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1754000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1181000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>977000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1351000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1408000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1368000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>144000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>772000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>806000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>915000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>266000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>560000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>813000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>598000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>382000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6200,91 +6397,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E83" s="3">
         <v>735000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>726000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>759000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>717000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>743000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>734000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>731000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>715000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>713000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>702000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>694000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>693000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>927000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>913000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>914000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>897000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>257000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>162000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>136000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>140000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>141000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>139000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>140000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>146000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>150000</v>
       </c>
       <c r="AC83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6366,8 +6567,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6449,8 +6653,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6532,8 +6739,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6615,8 +6825,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6698,91 +6911,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5028000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2099000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3283000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1244000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2030000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4275000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2119000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-296000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1093000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5092000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>515000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2856000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1887000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2793000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2461000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1039000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3192000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>126000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>624000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>995000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2025000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>575000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1235000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>697000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1579000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>952000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6812,91 +7031,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-345000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-338000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-324000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-288000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-304000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-350000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-258000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-242000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-319000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-252000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-256000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-267000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-310000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-243000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-303000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-194000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-182000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-126000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-117000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-103000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-146000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-103000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-91000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-99000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6978,8 +7201,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7061,91 +7287,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2983000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-616000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4446000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-408000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-324000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>123000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-710000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-717000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4420000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-938000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-237000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-269000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-271000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-304000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-634000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>475000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>125000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-99000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-603000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-368000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-615000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-117000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-985000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7175,38 +7407,39 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-368000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-334000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-341000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-352000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-357000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-324000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-330000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-342000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-345000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7258,8 +7491,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7341,8 +7577,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7424,8 +7663,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7507,253 +7749,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2636000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5517000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-916000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2171000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-312000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4400000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>19657000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-530000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-683000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-825000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-628000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-515000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>30000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-57000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-23000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-19000</v>
       </c>
       <c r="I101" s="3">
         <v>-19000</v>
       </c>
       <c r="J101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>48000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-37000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-21000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>27000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>23000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-36000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1141000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2194000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-137000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-488000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2008000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-338000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4839000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2329000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-237000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>834000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>967000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1121000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20398000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>863000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-201000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-684000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>45000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-544000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>970000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-39000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,223 +665,229 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>46461000</v>
+        <v>48586000</v>
       </c>
       <c r="E8" s="3">
+        <v>46517000</v>
+      </c>
+      <c r="F8" s="3">
         <v>45751000</v>
       </c>
-      <c r="F8" s="3">
-        <v>45199000</v>
-      </c>
       <c r="G8" s="3">
-        <v>45385000</v>
+        <v>45280000</v>
       </c>
       <c r="H8" s="3">
-        <v>43684000</v>
+        <v>45480000</v>
       </c>
       <c r="I8" s="3">
-        <v>45756000</v>
+        <v>44006000</v>
       </c>
       <c r="J8" s="3">
+        <v>45688000</v>
+      </c>
+      <c r="K8" s="3">
         <v>44356000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43190000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40972000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41879000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40870000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39303000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38294000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38338000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38607000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38842000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>37956000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14255000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11458000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11477000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11380000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10543000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10495000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10427000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10481000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9948000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>42476000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40505000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>40086000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>39531000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>39342000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>38085000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>39990000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -943,31 +949,34 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>6110000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6012000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5665000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5749000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6138000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5921000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5698000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
@@ -1029,8 +1038,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1073,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1160,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,180 +1249,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>96000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1711000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>30000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>52000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>279000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>133000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-106000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>144000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>251000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>-19000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>13000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>12000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>7000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>4000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E15" s="3">
         <v>459000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>457000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>460000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>501000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>458000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>499000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>501000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>503000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>495000</v>
       </c>
       <c r="M15" s="3">
         <v>495000</v>
       </c>
       <c r="N15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="O15" s="3">
         <v>493000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>496000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>498000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>735000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>734000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>737000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>743000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>136000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>48000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>27000</v>
       </c>
       <c r="Y15" s="3">
         <v>27000</v>
       </c>
       <c r="Z15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="AA15" s="3">
         <v>28000</v>
       </c>
       <c r="AB15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AC15" s="3">
         <v>32000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>36000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1434,180 +1459,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46365000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44502000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44099000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41404000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43099000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41818000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44151000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41994000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40994000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39145000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36164000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38730000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36640000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36506000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36686000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36433000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36656000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>35716000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13529000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10425000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10319000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10105000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9785000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9671000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9293000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9591000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9343000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1959000</v>
+        <v>2221000</v>
       </c>
       <c r="E18" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1652000</v>
       </c>
-      <c r="F18" s="3">
-        <v>3795000</v>
-      </c>
       <c r="G18" s="3">
-        <v>2286000</v>
+        <v>3876000</v>
       </c>
       <c r="H18" s="3">
-        <v>1866000</v>
+        <v>2381000</v>
       </c>
       <c r="I18" s="3">
-        <v>1605000</v>
+        <v>2188000</v>
       </c>
       <c r="J18" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2362000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2196000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1827000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5715000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2140000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2663000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1788000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1652000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2174000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2186000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2240000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>726000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1033000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1158000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1275000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>758000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>824000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1134000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>890000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>605000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1638,31 +1670,32 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-56000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-81000</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-95000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-322000</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1724,171 +1757,177 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2708000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2387000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4521000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3045000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2583000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2348000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3096000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2927000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2542000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6428000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2842000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3357000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2481000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2579000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3087000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3100000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3137000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>983000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1195000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1294000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1415000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>899000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>963000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1274000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1036000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>755000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E22" s="3">
         <v>358000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>324000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>304000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>301000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>299000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>293000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>303000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>298000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>314000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>337000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>336000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>374000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>391000</v>
       </c>
       <c r="Q22" s="3">
         <v>391000</v>
       </c>
       <c r="R22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="S22" s="3">
         <v>411000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>428000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>452000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>498000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
         <v>56000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>57000</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -1896,180 +1935,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1884000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1601000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1328000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3491000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1985000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1567000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1312000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2059000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1898000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1513000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5378000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1804000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2289000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1397000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1261000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1763000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1758000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1788000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>228000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1033000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1102000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1218000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>758000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>824000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1134000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>890000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>605000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E24" s="3">
         <v>295000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>130000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>713000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>413000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>355000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>179000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>424000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>422000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>342000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1236000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>406000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>529000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>208000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>277000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>409000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>348000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>416000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>80000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>264000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>294000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>301000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>259000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>262000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>324000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>297000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>231000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2154,180 +2202,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1306000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1198000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2778000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1572000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1212000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1133000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1635000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1476000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1171000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4142000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1398000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1760000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1189000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>984000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1354000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1410000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1372000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>148000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>769000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>808000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>917000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>499000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>562000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>810000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>593000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>374000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1267000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1169000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2757000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1559000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1197000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1621000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1467000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1161000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4135000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1388000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1754000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>977000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1351000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1408000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1368000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>145000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>767000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>806000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>915000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>498000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>560000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>813000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>598000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>382000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2412,8 +2469,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2450,8 +2510,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2468,24 +2528,24 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>5000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-232000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2498,8 +2558,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2584,8 +2647,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2670,31 +2736,34 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-26000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>322000</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-68000</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2756,94 +2825,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1267000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1169000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2757000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1559000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1197000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1116000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1621000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1467000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1161000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4135000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1388000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1754000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>977000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1351000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1408000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1368000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>144000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>772000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>806000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>915000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>266000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>560000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>813000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>598000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>382000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2928,185 +3003,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1267000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1169000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2757000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1559000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1197000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1116000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1621000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1467000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1161000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4135000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1388000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1754000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>977000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1351000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1408000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1368000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>144000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>772000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>806000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>915000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>266000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>560000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>813000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>598000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>382000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3137,8 +3221,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3169,117 +3254,121 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9585000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7935000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5924000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7079000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4421000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4424000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5081000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3483000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3821000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6505000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10182000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5344000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7185000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4452000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4619000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4577000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3610000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4976000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3855000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24032000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3634000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2771000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2972000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3656000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3611000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4155000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3185000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>872000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>914000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>905000</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>783000</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>754000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>731000</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>920000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3341,31 +3430,34 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>18333000</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>17704000</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>17218000</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>17275000</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>18290000</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>16003000</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>15071000</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3397,61 +3489,64 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>3609000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3412000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3455000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3380000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3308000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3419000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3154000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3077000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>4514000</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>4211000</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>4777000</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>4017000</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>3781000</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>3722000</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3513,31 +3608,34 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1407000</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>1263000</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>1298000</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1016000</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>10176000</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>10735000</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>11340000</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3599,31 +3697,34 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>34711000</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>32027000</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>30122000</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>30170000</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>37422000</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>35393000</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>36134000</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3685,266 +3786,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37628000</v>
+        <v>18967000</v>
       </c>
       <c r="E47" s="3">
-        <v>34411000</v>
+        <v>19010000</v>
       </c>
       <c r="F47" s="3">
-        <v>34331000</v>
+        <v>16288000</v>
       </c>
       <c r="G47" s="3">
-        <v>35768000</v>
+        <v>16273000</v>
       </c>
       <c r="H47" s="3">
-        <v>34427000</v>
+        <v>16724000</v>
       </c>
       <c r="I47" s="3">
-        <v>34429000</v>
+        <v>17693000</v>
       </c>
       <c r="J47" s="3">
+        <v>18438000</v>
+      </c>
+      <c r="K47" s="3">
         <v>41380000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40389000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37886000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36784000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36764000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>35222000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33316000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>33195000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>41994000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>41545000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>39860000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>39447000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28976000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29339000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>29864000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>28619000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28245000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27932000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27259000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>26815000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3884000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3837000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7923000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4140000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4104000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4089000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4143000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4589000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4586000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4648000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4757000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4733000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4799000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4831000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4953000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5125000</v>
       </c>
       <c r="T48" s="3">
         <v>5125000</v>
       </c>
       <c r="U48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="V48" s="3">
         <v>4562000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1559000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1554000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1552000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1563000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1526000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1509000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1519000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1536000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77524000</v>
+      </c>
+      <c r="E49" s="3">
         <v>77913000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>78303000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>78692000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79086000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79518000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>79913000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80671000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81070000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>79427000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>79827000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80177000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80381000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80746000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>81164000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>81546000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>82166000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>82875000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>84071000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6129000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6147000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6170000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6164000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6001000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6000000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5982000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5980000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4029,8 +4142,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4115,31 +4231,34 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>14968000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>15189000</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>18449000</v>
       </c>
       <c r="G52" s="3">
-        <v>9052000</v>
+        <v>14934000</v>
       </c>
       <c r="H52" s="3">
-        <v>9693000</v>
+        <v>15294000</v>
       </c>
       <c r="I52" s="3">
-        <v>10057000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>15917000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>16261000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -4147,62 +4266,65 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>10022000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9788000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9419000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9512000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>132000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>140000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>96000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>39000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>172000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>199000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>263000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>304000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4287,94 +4409,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150054000</v>
+      </c>
+      <c r="E54" s="3">
         <v>147976000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>143885000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>144209000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>152630000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>152610000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154889000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154251000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154207000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>152081000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155451000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>160044000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>159628000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154711000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155774000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>154847000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>154401000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>154348000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>153226000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82956000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>63102000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>63141000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>61759000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>61936000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>61738000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>61147000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>59360000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4405,8 +4533,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4437,289 +4566,299 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8072000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7360000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7775000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6870000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7142000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6632000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6655000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5659000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5647000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5640000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5478000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5327000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5413000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5585000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5090000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4502000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4517000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4488000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4366000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7541000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7406000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7825000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7290000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6802000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6601000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6667000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6414000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4618000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3418000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2993000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3488000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2397000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2173000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2545000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2703000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1532000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>404000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3374000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6449000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4750000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4340000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5514000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4712000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2310000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2915000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2955000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>9000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>109000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>110000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>240000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>141000</v>
       </c>
       <c r="AA58" s="3">
         <v>141000</v>
       </c>
       <c r="AB58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="AC58" s="3">
         <v>142000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>276000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53079000</v>
+        <v>34655000</v>
       </c>
       <c r="E59" s="3">
-        <v>58063000</v>
+        <v>33949000</v>
       </c>
       <c r="F59" s="3">
-        <v>50040000</v>
+        <v>38463000</v>
       </c>
       <c r="G59" s="3">
-        <v>49491000</v>
+        <v>30757000</v>
       </c>
       <c r="H59" s="3">
-        <v>49435000</v>
+        <v>35679000</v>
       </c>
       <c r="I59" s="3">
-        <v>49285000</v>
+        <v>34857000</v>
       </c>
       <c r="J59" s="3">
+        <v>34372000</v>
+      </c>
+      <c r="K59" s="3">
         <v>54164000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53907000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53418000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53591000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50205000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49714000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47335000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47704000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>54151000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54015000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>54212000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>52387000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19869000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>20657000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>20622000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17343000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17872000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17999000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17816000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17032000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>47345000</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>44727000</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>41225000</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>41115000</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>45218000</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>43662000</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>43572000</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -4781,154 +4920,160 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28115000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29124000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28100000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28090000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30984000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31013000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31125000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31609000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31606000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31568000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29545000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29537000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>31774000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32147000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31893000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34041000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36885000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37571000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>39523000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>25041000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5195000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5191000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5199000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5207000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4622000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4621000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4756000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7707000</v>
+        <v>29068000</v>
       </c>
       <c r="E62" s="3">
-        <v>7786000</v>
+        <v>29529000</v>
       </c>
       <c r="F62" s="3">
-        <v>7777000</v>
+        <v>32948000</v>
       </c>
       <c r="G62" s="3">
-        <v>13865000</v>
+        <v>29871000</v>
       </c>
       <c r="H62" s="3">
-        <v>14226000</v>
+        <v>30461000</v>
       </c>
       <c r="I62" s="3">
-        <v>14769000</v>
+        <v>31771000</v>
       </c>
       <c r="J62" s="3">
+        <v>33008000</v>
+      </c>
+      <c r="K62" s="3">
         <v>8832000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8867000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8832000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8939000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16337000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16279000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16109000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16199000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9284000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9407000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9403000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9453000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4944,8 +5089,8 @@
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
@@ -4953,8 +5098,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5039,8 +5187,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5125,8 +5276,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5211,94 +5365,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104609000</v>
+      </c>
+      <c r="E66" s="3">
         <v>103474000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>99210000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99168000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>106738000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106523000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>107777000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>106836000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105498000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103932000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105130000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112012000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112262000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109632000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110436000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110151000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>110586000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>111940000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>112198000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>67401000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48359000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48946000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48048000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>47791000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>47192000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>46921000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>45637000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5329,8 +5489,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5415,8 +5576,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5501,8 +5665,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5587,8 +5754,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5673,94 +5843,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39936000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38841000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>37940000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37041000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34626000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33420000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>32593000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31803000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30513000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29389000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28575000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24440000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23052000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21298000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20162000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19185000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17834000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16426000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15088000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18474000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17722000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16933000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15800000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15590000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15102000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14356000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13855000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5845,8 +6021,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5931,8 +6110,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6017,94 +6199,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45445000</v>
+      </c>
+      <c r="E76" s="3">
         <v>44502000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44675000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45041000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45892000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46087000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>47112000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47415000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48709000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48149000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50321000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48032000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47366000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45079000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45338000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44696000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43815000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42408000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41028000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15555000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14743000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14195000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13711000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14145000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14546000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14226000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13723000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6189,185 +6377,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1460000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1267000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1169000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2757000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1559000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1197000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1116000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1621000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1467000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1161000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4135000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1388000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1754000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>977000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1351000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1408000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1368000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>144000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>772000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>806000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>915000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>266000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>560000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>813000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>598000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>382000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6398,94 +6595,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E83" s="3">
         <v>749000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>735000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>726000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>759000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>717000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>743000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>734000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>731000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>715000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>713000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>702000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>694000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>693000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>927000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>913000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>914000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>897000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>257000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>162000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>136000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>140000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>141000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>139000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>140000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>146000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>150000</v>
       </c>
       <c r="AD83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6570,8 +6771,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6656,8 +6860,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6742,8 +6949,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6828,8 +7038,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6914,94 +7127,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2492000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5028000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2099000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3283000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1244000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2030000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4275000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2119000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-296000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1093000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5092000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>515000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2856000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1887000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2793000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2461000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1039000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3192000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>126000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>624000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>995000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>575000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1235000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>697000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1579000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>952000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7032,94 +7251,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-397000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-408000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-345000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-338000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-324000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-288000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-304000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-350000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-258000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-242000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-319000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-252000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-256000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-310000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-243000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-303000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-194000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-182000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-126000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-117000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-131000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-146000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-103000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-91000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-99000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7204,8 +7427,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7290,94 +7516,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2983000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-616000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4446000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-408000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-324000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>123000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-710000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-717000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4420000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-938000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-237000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-269000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-271000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-304000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-634000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>475000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>125000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-99000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-603000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-368000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-615000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-117000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-985000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7408,41 +7640,42 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-368000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-334000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-341000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-352000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-357000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-324000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-330000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-342000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-345000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7494,8 +7727,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7580,8 +7816,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7666,8 +7905,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7752,262 +7994,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-37000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2636000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5517000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-916000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2171000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-312000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4400000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19657000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-530000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-683000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-825000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-628000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-515000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>30000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-57000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-19000</v>
       </c>
       <c r="J101" s="3">
         <v>-19000</v>
       </c>
       <c r="K101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-26000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>48000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-21000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>27000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>23000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-36000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2013000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1141000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2194000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-137000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-488000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2008000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-338000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4839000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2329000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-237000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>834000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>967000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1121000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20398000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>863000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-684000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>45000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-544000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>970000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-39000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>770000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,239 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49048000</v>
+      </c>
+      <c r="E8" s="3">
         <v>48586000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46517000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45751000</v>
       </c>
-      <c r="G8" s="3">
-        <v>45280000</v>
-      </c>
       <c r="H8" s="3">
-        <v>45480000</v>
+        <v>134765000</v>
       </c>
       <c r="I8" s="3">
+        <v>45478000</v>
+      </c>
+      <c r="J8" s="3">
         <v>44006000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45688000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44356000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43190000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40972000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41879000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40870000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39303000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38294000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38338000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38607000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38842000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>37956000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14255000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11458000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11477000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11380000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10543000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10495000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10427000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10481000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9948000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>9881000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>42566000</v>
+      </c>
+      <c r="E9" s="3">
         <v>42476000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40505000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40086000</v>
       </c>
-      <c r="G9" s="3">
-        <v>39531000</v>
-      </c>
       <c r="H9" s="3">
+        <v>116955000</v>
+      </c>
+      <c r="I9" s="3">
         <v>39342000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38085000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>39990000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,35 +958,38 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6482000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6110000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6012000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5665000</v>
       </c>
-      <c r="G10" s="3">
-        <v>5749000</v>
-      </c>
       <c r="H10" s="3">
-        <v>6138000</v>
+        <v>17810000</v>
       </c>
       <c r="I10" s="3">
+        <v>6136000</v>
+      </c>
+      <c r="J10" s="3">
         <v>5921000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5698000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1050,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,8 +1176,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1252,186 +1268,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>96000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1711000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>30000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>52000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>279000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>133000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4015000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-106000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>144000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>251000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>-19000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>12000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>7000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E15" s="3">
         <v>455000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>459000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>457000</v>
       </c>
-      <c r="G15" s="3">
-        <v>460000</v>
-      </c>
       <c r="H15" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="I15" s="3">
         <v>501000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>458000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>499000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>501000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>503000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>495000</v>
       </c>
       <c r="N15" s="3">
         <v>495000</v>
       </c>
       <c r="O15" s="3">
+        <v>495000</v>
+      </c>
+      <c r="P15" s="3">
         <v>493000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>496000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>498000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>735000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>734000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>737000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>743000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>136000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>48000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>27000</v>
       </c>
       <c r="Z15" s="3">
         <v>27000</v>
       </c>
       <c r="AA15" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="AB15" s="3">
         <v>28000</v>
       </c>
       <c r="AC15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AD15" s="3">
         <v>32000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>36000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1460,186 +1485,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46829000</v>
+      </c>
+      <c r="E17" s="3">
         <v>46365000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44502000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44099000</v>
       </c>
-      <c r="G17" s="3">
-        <v>41404000</v>
-      </c>
       <c r="H17" s="3">
-        <v>43099000</v>
+        <v>126329000</v>
       </c>
       <c r="I17" s="3">
+        <v>43107000</v>
+      </c>
+      <c r="J17" s="3">
         <v>41818000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44151000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41994000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40994000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39145000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36164000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38730000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36640000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36506000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36686000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36433000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>36656000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35716000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13529000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10425000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10319000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10105000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9785000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9671000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9293000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9591000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9343000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>9139000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2219000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2221000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2015000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1652000</v>
       </c>
-      <c r="G18" s="3">
-        <v>3876000</v>
-      </c>
       <c r="H18" s="3">
-        <v>2381000</v>
+        <v>8436000</v>
       </c>
       <c r="I18" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="J18" s="3">
         <v>2188000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1537000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2362000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2196000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1827000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5715000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2140000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2663000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1788000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1652000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2174000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2186000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2240000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>726000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1033000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1158000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1275000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>758000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>824000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1134000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>890000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>605000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1671,35 +1703,36 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>26000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-56000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-81000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-95000</v>
+        <v>-493000</v>
       </c>
       <c r="I20" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-322000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>68000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1760,177 +1793,183 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2971000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3002000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2708000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2387000</v>
       </c>
-      <c r="G21" s="3">
-        <v>4521000</v>
-      </c>
       <c r="H21" s="3">
-        <v>3045000</v>
+        <v>10145000</v>
       </c>
       <c r="I21" s="3">
+        <v>3041000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2583000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2348000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3096000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2927000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2542000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6428000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2842000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3357000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2481000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2579000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3087000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3100000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3137000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>983000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1195000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1294000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1415000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>899000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>963000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1274000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1036000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>755000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>892000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E22" s="3">
         <v>363000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>358000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>324000</v>
       </c>
-      <c r="G22" s="3">
-        <v>304000</v>
-      </c>
       <c r="H22" s="3">
+        <v>904000</v>
+      </c>
+      <c r="I22" s="3">
         <v>301000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>299000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>293000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>303000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>298000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>314000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>337000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>336000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>374000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>391000</v>
       </c>
       <c r="R22" s="3">
         <v>391000</v>
       </c>
       <c r="S22" s="3">
+        <v>391000</v>
+      </c>
+      <c r="T22" s="3">
         <v>411000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>428000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>452000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>498000</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
         <v>56000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>57000</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -1938,186 +1977,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1840000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1884000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1601000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1328000</v>
       </c>
-      <c r="G23" s="3">
-        <v>3491000</v>
-      </c>
       <c r="H23" s="3">
-        <v>1985000</v>
+        <v>7039000</v>
       </c>
       <c r="I23" s="3">
+        <v>1981000</v>
+      </c>
+      <c r="J23" s="3">
         <v>1567000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1312000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2059000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1898000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1513000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5378000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1804000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2289000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1397000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1261000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1763000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1758000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1788000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>228000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1033000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1102000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1218000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>758000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>824000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1134000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>890000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>605000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>742000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E24" s="3">
         <v>374000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>295000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>130000</v>
       </c>
-      <c r="G24" s="3">
-        <v>713000</v>
-      </c>
       <c r="H24" s="3">
-        <v>413000</v>
+        <v>1479000</v>
       </c>
       <c r="I24" s="3">
+        <v>411000</v>
+      </c>
+      <c r="J24" s="3">
         <v>355000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>179000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>424000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>422000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>342000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1236000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>406000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>529000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>208000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>277000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>409000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>348000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>416000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>80000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>264000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>294000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>301000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>259000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>262000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>324000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>297000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>231000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>290000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2205,186 +2253,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1510000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1306000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1198000</v>
       </c>
-      <c r="G26" s="3">
-        <v>2778000</v>
-      </c>
       <c r="H26" s="3">
-        <v>1572000</v>
+        <v>5560000</v>
       </c>
       <c r="I26" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="J26" s="3">
         <v>1212000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1133000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1635000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1476000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1171000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4142000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1398000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1189000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>984000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1354000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1410000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1372000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>148000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>769000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>808000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>917000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>499000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>562000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>810000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>593000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>374000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>452000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1460000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1267000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1169000</v>
       </c>
-      <c r="G27" s="3">
-        <v>2757000</v>
-      </c>
       <c r="H27" s="3">
-        <v>1559000</v>
+        <v>5511000</v>
       </c>
       <c r="I27" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="J27" s="3">
         <v>1197000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1621000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1467000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1161000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4135000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1388000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1181000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>977000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1351000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1408000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1368000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>145000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>767000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>806000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>915000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>498000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>560000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>813000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>598000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>382000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2472,8 +2529,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2513,8 +2573,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2531,24 +2591,24 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>5000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-232000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2561,8 +2621,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2650,8 +2713,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2739,35 +2805,38 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>56000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>81000</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>95000</v>
+        <v>493000</v>
       </c>
       <c r="I32" s="3">
+        <v>89000</v>
+      </c>
+      <c r="J32" s="3">
         <v>322000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-68000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2828,97 +2897,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1460000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1267000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1169000</v>
       </c>
-      <c r="G33" s="3">
-        <v>2757000</v>
-      </c>
       <c r="H33" s="3">
-        <v>1559000</v>
+        <v>5511000</v>
       </c>
       <c r="I33" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="J33" s="3">
         <v>1197000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1116000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1621000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1467000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1161000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4135000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1388000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1181000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>977000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1351000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1408000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1368000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>144000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>772000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>806000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>915000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>266000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>560000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>813000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>598000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>382000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3006,191 +3081,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1460000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1267000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1169000</v>
       </c>
-      <c r="G35" s="3">
-        <v>2757000</v>
-      </c>
       <c r="H35" s="3">
-        <v>1559000</v>
+        <v>5511000</v>
       </c>
       <c r="I35" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="J35" s="3">
         <v>1197000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1116000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1621000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1467000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1161000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4135000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1388000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1181000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>977000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1351000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1408000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1368000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>144000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>772000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>806000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>915000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>266000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>560000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>813000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>598000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>382000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3222,8 +3306,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3255,124 +3340,128 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8497000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9585000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7935000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5924000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7079000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4421000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4424000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5081000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3483000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3821000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6505000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10182000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5344000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7185000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4452000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4619000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4577000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3610000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4976000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3855000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24032000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3634000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2771000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2972000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3656000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3611000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4155000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3185000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3224000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E42" s="3">
         <v>872000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>914000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>905000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>783000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>754000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>731000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>920000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -3433,35 +3522,38 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19083000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18333000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17704000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17218000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17275000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18290000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16003000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15071000</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3492,65 +3584,68 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>3609000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3412000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3455000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3380000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3308000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3419000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3154000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3077000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3577000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4416000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4514000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4211000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4777000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4017000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3781000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3722000</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
@@ -3611,35 +3706,38 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1407000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1263000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1298000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1016000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10176000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10735000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11340000</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -3700,35 +3798,38 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34518000</v>
+      </c>
+      <c r="E46" s="3">
         <v>34711000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32027000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30122000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30170000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37422000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35393000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36134000</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3789,275 +3890,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18974000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18967000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19010000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16288000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16273000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16724000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17693000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18438000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41380000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40389000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37886000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36784000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>36764000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>35222000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>33316000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>33195000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>41994000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>41545000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>39860000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>39447000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28976000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>29339000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>29864000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>28619000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>28245000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27932000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27259000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>26815000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>27101000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3924000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3884000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3837000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7923000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4140000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4104000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4089000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4143000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4589000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4586000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4648000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4757000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4733000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4799000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4831000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4953000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5013000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5125000</v>
       </c>
       <c r="U48" s="3">
         <v>5125000</v>
       </c>
       <c r="V48" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="W48" s="3">
         <v>4562000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1559000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1554000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1552000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1563000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1526000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1509000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1519000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1536000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1561000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77134000</v>
+      </c>
+      <c r="E49" s="3">
         <v>77524000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77913000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>78303000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>78692000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79086000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>79518000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>79913000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80671000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81070000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>79427000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>79827000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80177000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80381000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80746000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>81164000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>81546000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>82166000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>82875000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>84071000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6129000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6147000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6170000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6164000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6001000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6000000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5982000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5980000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>6007000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4145,8 +4258,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4234,97 +4350,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15095000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14968000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15189000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18449000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14934000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15294000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15917000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16261000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>10022000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9788000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9419000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9512000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>132000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>140000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>96000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>39000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>172000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>199000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>263000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>304000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4412,97 +4534,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149645000</v>
+      </c>
+      <c r="E54" s="3">
         <v>150054000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>147976000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>143885000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144209000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>152630000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>152610000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>154889000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>154251000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154207000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>152081000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155451000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160044000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>159628000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154711000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155774000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>154847000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>154401000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>154348000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>153226000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>82956000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>63102000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>63141000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>61759000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>61936000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>61738000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>61147000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>59360000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>60762000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4534,8 +4662,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4567,302 +4696,312 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7673000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8072000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7360000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7775000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6870000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7142000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6632000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6655000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5659000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5647000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5640000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5478000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5327000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5413000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5585000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5090000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4502000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4517000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4488000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4366000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7541000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7406000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7825000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7290000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6802000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6601000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6667000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>6414000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>6374000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3046000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4618000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3418000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2993000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3488000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2397000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2173000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2545000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2703000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1532000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>404000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3374000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6449000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4750000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4340000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5514000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4712000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2310000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2915000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2955000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>9000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>109000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>110000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>240000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>141000</v>
       </c>
       <c r="AB58" s="3">
         <v>141000</v>
       </c>
       <c r="AC58" s="3">
+        <v>141000</v>
+      </c>
+      <c r="AD58" s="3">
         <v>142000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>276000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36340000</v>
+      </c>
+      <c r="E59" s="3">
         <v>34655000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33949000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38463000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30757000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35679000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34857000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34372000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54164000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53907000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53418000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53591000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50205000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>49714000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47335000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47704000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54151000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>54015000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>54212000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>52387000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19869000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>20657000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>20622000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17343000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17872000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17999000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17816000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>17032000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>17805000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47059000</v>
+      </c>
+      <c r="E60" s="3">
         <v>47345000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44727000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41225000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41115000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45218000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>43662000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43572000</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -4923,160 +5062,166 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28094000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28115000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29124000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28100000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28090000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30984000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31013000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>31125000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31609000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31606000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31568000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29545000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>29537000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31774000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32147000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>31893000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34041000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36885000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>37571000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>39523000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>25041000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5195000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5191000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5199000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5207000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4622000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4621000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4756000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>4780000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28726000</v>
+      </c>
+      <c r="E62" s="3">
         <v>29068000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29529000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32948000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29871000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30461000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31771000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33008000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8832000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8867000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8832000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8939000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16337000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16279000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16109000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16199000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9284000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9407000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9403000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9453000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
@@ -5092,8 +5237,8 @@
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
@@ -5101,8 +5246,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5190,8 +5338,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5279,8 +5430,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5368,97 +5522,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103954000</v>
+      </c>
+      <c r="E66" s="3">
         <v>104609000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>103474000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>99210000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99168000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>106738000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106523000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>107777000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106836000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105498000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103932000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>105130000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112012000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112262000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>109632000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110436000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>110151000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110586000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>111940000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>112198000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>67401000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48359000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48946000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>48048000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>47791000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>47192000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>46921000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>45637000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>46788000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5490,8 +5650,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5579,8 +5740,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5668,8 +5832,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5757,8 +5924,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5846,97 +6016,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40982000</v>
+      </c>
+      <c r="E72" s="3">
         <v>39936000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38841000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37940000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>37041000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>34626000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33420000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>32593000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31803000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30513000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29389000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28575000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24440000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23052000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21298000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20162000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19185000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17834000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16426000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15088000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18474000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17722000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16933000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15800000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15590000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15102000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14356000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13855000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>13487000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6024,8 +6200,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6113,8 +6292,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6202,97 +6384,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45691000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45445000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44502000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44675000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45041000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45892000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46087000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>47112000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47415000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48709000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48149000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50321000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48032000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47366000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45079000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45338000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44696000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43815000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42408000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41028000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15555000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14743000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14195000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13711000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14145000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14546000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14226000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13723000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>13974000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6380,191 +6568,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1460000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1267000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1169000</v>
       </c>
-      <c r="G81" s="3">
-        <v>2757000</v>
-      </c>
       <c r="H81" s="3">
-        <v>1559000</v>
+        <v>5511000</v>
       </c>
       <c r="I81" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="J81" s="3">
         <v>1197000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1116000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1621000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1467000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1161000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4135000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1388000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1754000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1181000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>977000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1351000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1408000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1368000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>144000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>772000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>806000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>915000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>266000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>560000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>813000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>598000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>382000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>456000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6596,97 +6793,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E83" s="3">
         <v>755000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>749000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>735000</v>
       </c>
-      <c r="G83" s="3">
-        <v>726000</v>
-      </c>
       <c r="H83" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="I83" s="3">
         <v>759000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>717000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>743000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>734000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>731000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>715000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>713000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>702000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>694000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>693000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>927000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>913000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>914000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>897000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>257000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>162000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>136000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>140000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>141000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>139000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>140000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>146000</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>150000</v>
       </c>
       <c r="AE83" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6774,8 +6975,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6863,8 +7067,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6952,8 +7159,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7041,8 +7251,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7130,97 +7343,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2492000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5028000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2099000</v>
       </c>
-      <c r="G89" s="3">
-        <v>3283000</v>
-      </c>
       <c r="H89" s="3">
+        <v>6557000</v>
+      </c>
+      <c r="I89" s="3">
         <v>1244000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2030000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4275000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2119000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-296000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1093000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5092000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>515000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2856000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1887000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2793000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2461000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1039000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3192000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>126000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>624000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>995000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>575000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1235000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>697000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1579000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>952000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1807000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7252,97 +7471,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-403000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-397000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-408000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-345000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-338000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-324000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-288000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-304000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-350000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-258000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-242000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-319000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-252000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-256000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-267000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-310000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-243000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-303000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-194000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-182000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-126000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-103000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-131000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-146000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-103000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-91000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-99000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7430,8 +7653,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7519,97 +7745,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1337000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-414000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2983000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-616000</v>
       </c>
-      <c r="G94" s="3">
-        <v>4446000</v>
-      </c>
       <c r="H94" s="3">
+        <v>3714000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-408000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-324000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>123000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-710000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2307000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-717000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4420000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-938000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-237000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-269000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-271000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-304000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-634000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>475000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24704000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>125000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-99000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1700000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-603000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-368000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-615000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-117000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-985000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1088000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7641,8 +7873,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7650,35 +7883,35 @@
         <v>-362000</v>
       </c>
       <c r="E96" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-368000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-334000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-341000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-1050000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-352000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-357000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-324000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-330000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-342000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-345000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7730,8 +7963,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7819,8 +8055,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7908,8 +8147,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7997,271 +8239,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2572000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-435000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2636000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-5517000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-8604000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-916000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2171000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2371000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1728000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4051000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4721000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1682000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-312000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1818000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1707000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1173000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1773000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2534000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4400000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>19657000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-530000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-683000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-825000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-628000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-515000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>30000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-18000</v>
-      </c>
       <c r="H101" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-57000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-19000</v>
       </c>
       <c r="K101" s="3">
         <v>-19000</v>
       </c>
       <c r="L101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>48000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-37000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-12000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>27000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>23000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-36000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1090000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1647000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2013000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1141000</v>
       </c>
-      <c r="G102" s="3">
-        <v>2194000</v>
-      </c>
       <c r="H102" s="3">
+        <v>1569000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-137000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-488000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2008000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-338000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2666000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3701000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4839000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2097000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2329000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-237000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>834000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>967000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1366000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1121000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-20177000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>20398000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>863000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-201000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-684000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>45000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-544000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>970000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-39000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>770000</v>
       </c>
     </row>
